--- a/Ada.Web/upload/hot.xlsx
+++ b/Ada.Web/upload/hot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCode\AdaSystem\Ada.Web\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,3453 +19,2967 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="987">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>X1803061438174785</t>
-  </si>
-  <si>
-    <t>X1803061436264756</t>
-  </si>
-  <si>
-    <t>X1803061435024732</t>
-  </si>
-  <si>
-    <t>X1801162149548756</t>
-  </si>
-  <si>
-    <t>X1801162149538751</t>
-  </si>
-  <si>
-    <t>X1801162149528746</t>
-  </si>
-  <si>
-    <t>X1801162149528741</t>
-  </si>
-  <si>
-    <t>X1801162149518736</t>
-  </si>
-  <si>
-    <t>X1801162149508731</t>
-  </si>
-  <si>
-    <t>X1801162149498726</t>
-  </si>
-  <si>
-    <t>X1801162149498721</t>
-  </si>
-  <si>
-    <t>X1801162149488716</t>
-  </si>
-  <si>
-    <t>X1801162149468706</t>
-  </si>
-  <si>
-    <t>X1801162149468701</t>
-  </si>
-  <si>
-    <t>X1801162149458696</t>
-  </si>
-  <si>
-    <t>X1801162149448691</t>
-  </si>
-  <si>
-    <t>X1801100829262617</t>
-  </si>
-  <si>
-    <t>X1801100829262612</t>
-  </si>
-  <si>
-    <t>X1801100829262607</t>
-  </si>
-  <si>
-    <t>X1801100829262602</t>
-  </si>
-  <si>
-    <t>X1801100829262597</t>
-  </si>
-  <si>
-    <t>X1801100829262592</t>
-  </si>
-  <si>
-    <t>X1801100829262587</t>
-  </si>
-  <si>
-    <t>X1801100829262582</t>
-  </si>
-  <si>
-    <t>X1801100829262577</t>
-  </si>
-  <si>
-    <t>X1801100829262572</t>
-  </si>
-  <si>
-    <t>X1801100829252567</t>
-  </si>
-  <si>
-    <t>X1801100829252562</t>
-  </si>
-  <si>
-    <t>X1801100829252557</t>
-  </si>
-  <si>
-    <t>X1801100829252552</t>
-  </si>
-  <si>
-    <t>X1801100829252547</t>
-  </si>
-  <si>
-    <t>X1801100829252542</t>
-  </si>
-  <si>
-    <t>X1801100829252537</t>
-  </si>
-  <si>
-    <t>X1801100829252532</t>
-  </si>
-  <si>
-    <t>X1801100829252527</t>
-  </si>
-  <si>
-    <t>X1801100829252522</t>
-  </si>
-  <si>
-    <t>X1801100829242517</t>
-  </si>
-  <si>
-    <t>X1801100829242512</t>
-  </si>
-  <si>
-    <t>X1801100829242507</t>
-  </si>
-  <si>
-    <t>X1801100829242502</t>
-  </si>
-  <si>
-    <t>X1801100829242497</t>
-  </si>
-  <si>
-    <t>X1801100829242492</t>
-  </si>
-  <si>
-    <t>X1801100829242487</t>
-  </si>
-  <si>
-    <t>X1801100829242482</t>
-  </si>
-  <si>
-    <t>X1801100829242477</t>
-  </si>
-  <si>
-    <t>X1801100829242472</t>
-  </si>
-  <si>
-    <t>X1801100829232467</t>
-  </si>
-  <si>
-    <t>X1801100829232462</t>
-  </si>
-  <si>
-    <t>X1801100829232457</t>
-  </si>
-  <si>
-    <t>X1801100829232452</t>
-  </si>
-  <si>
-    <t>X1801100829232447</t>
-  </si>
-  <si>
-    <t>X1801100829232442</t>
-  </si>
-  <si>
-    <t>X1801100829232437</t>
-  </si>
-  <si>
-    <t>X1801100829232432</t>
-  </si>
-  <si>
-    <t>X1801100829232427</t>
-  </si>
-  <si>
-    <t>X1801100829232422</t>
-  </si>
-  <si>
-    <t>X1801100829222417</t>
-  </si>
-  <si>
-    <t>X1801100829222412</t>
-  </si>
-  <si>
-    <t>X1801100829222406</t>
-  </si>
-  <si>
-    <t>X1801100829222401</t>
-  </si>
-  <si>
-    <t>X1801100829222395</t>
-  </si>
-  <si>
-    <t>X1801100829222390</t>
-  </si>
-  <si>
-    <t>X1801100829222385</t>
-  </si>
-  <si>
-    <t>X1801100829222380</t>
-  </si>
-  <si>
-    <t>X1801100829222375</t>
-  </si>
-  <si>
-    <t>X1801100829222370</t>
-  </si>
-  <si>
-    <t>X1801100829212365</t>
-  </si>
-  <si>
-    <t>X1801100829212360</t>
-  </si>
-  <si>
-    <t>X1801100829212355</t>
-  </si>
-  <si>
-    <t>X1801100829212350</t>
-  </si>
-  <si>
-    <t>X1801100829212345</t>
-  </si>
-  <si>
-    <t>X1801100829212340</t>
-  </si>
-  <si>
-    <t>X1801100829212335</t>
-  </si>
-  <si>
-    <t>X1801100829212330</t>
-  </si>
-  <si>
-    <t>X1801100829212325</t>
-  </si>
-  <si>
-    <t>X1801100829202319</t>
-  </si>
-  <si>
-    <t>X1801100829202314</t>
-  </si>
-  <si>
-    <t>X1801100829202309</t>
-  </si>
-  <si>
-    <t>X1801100829202304</t>
-  </si>
-  <si>
-    <t>X1801100829202299</t>
-  </si>
-  <si>
-    <t>X1801100829202294</t>
-  </si>
-  <si>
-    <t>X1801100829202289</t>
-  </si>
-  <si>
-    <t>X1801100829202284</t>
-  </si>
-  <si>
-    <t>X1801100829202279</t>
-  </si>
-  <si>
-    <t>X1801100829202274</t>
-  </si>
-  <si>
-    <t>X1801100829202269</t>
-  </si>
-  <si>
-    <t>X1801100829192264</t>
-  </si>
-  <si>
-    <t>X1801100829192259</t>
-  </si>
-  <si>
-    <t>X1801100829192254</t>
-  </si>
-  <si>
-    <t>X1801100829192249</t>
-  </si>
-  <si>
-    <t>X1801100829192244</t>
-  </si>
-  <si>
-    <t>X1801100829192239</t>
-  </si>
-  <si>
-    <t>X1801100829192234</t>
-  </si>
-  <si>
-    <t>X1801100829192229</t>
-  </si>
-  <si>
-    <t>X1801100829192224</t>
-  </si>
-  <si>
-    <t>X1801100829192219</t>
-  </si>
-  <si>
-    <t>X1801100829182214</t>
-  </si>
-  <si>
-    <t>X1801100829182209</t>
-  </si>
-  <si>
-    <t>X1801100829182204</t>
-  </si>
-  <si>
-    <t>X1801100829182199</t>
-  </si>
-  <si>
-    <t>X1801100829182194</t>
-  </si>
-  <si>
-    <t>X1801100829182189</t>
-  </si>
-  <si>
-    <t>X1801100829182184</t>
-  </si>
-  <si>
-    <t>X1801100829182179</t>
-  </si>
-  <si>
-    <t>X1801100829182174</t>
-  </si>
-  <si>
-    <t>X1801100829182169</t>
-  </si>
-  <si>
-    <t>X1801100829172164</t>
-  </si>
-  <si>
-    <t>X1801100829172159</t>
-  </si>
-  <si>
-    <t>X1801100829172154</t>
-  </si>
-  <si>
-    <t>X1801100829172149</t>
-  </si>
-  <si>
-    <t>X1801100829172144</t>
-  </si>
-  <si>
-    <t>X1801100829172139</t>
-  </si>
-  <si>
-    <t>X1801100829172134</t>
-  </si>
-  <si>
-    <t>X1801100829172129</t>
-  </si>
-  <si>
-    <t>X1801100829172124</t>
-  </si>
-  <si>
-    <t>X1801100829172119</t>
-  </si>
-  <si>
-    <t>X1801100829172114</t>
-  </si>
-  <si>
-    <t>X1801100829162109</t>
-  </si>
-  <si>
-    <t>X1801100829162104</t>
-  </si>
-  <si>
-    <t>X1801100829162099</t>
-  </si>
-  <si>
-    <t>X1801100829162094</t>
-  </si>
-  <si>
-    <t>X1801100829162089</t>
-  </si>
-  <si>
-    <t>X1801100829162084</t>
-  </si>
-  <si>
-    <t>X1801100829162079</t>
-  </si>
-  <si>
-    <t>X1801100829162074</t>
-  </si>
-  <si>
-    <t>X1801100829162069</t>
-  </si>
-  <si>
-    <t>X1801100829162064</t>
-  </si>
-  <si>
-    <t>X1801100829152059</t>
-  </si>
-  <si>
-    <t>X1801100829152054</t>
-  </si>
-  <si>
-    <t>X1801100829152049</t>
-  </si>
-  <si>
-    <t>X1801100829152044</t>
-  </si>
-  <si>
-    <t>X1801100829152039</t>
-  </si>
-  <si>
-    <t>X1801100829152034</t>
-  </si>
-  <si>
-    <t>X1801100829152029</t>
-  </si>
-  <si>
-    <t>X1801100829152024</t>
-  </si>
-  <si>
-    <t>X1801100829152019</t>
-  </si>
-  <si>
-    <t>X1801100829152014</t>
-  </si>
-  <si>
-    <t>X1801100829142009</t>
-  </si>
-  <si>
-    <t>X1801100829142004</t>
-  </si>
-  <si>
-    <t>X1801100829141999</t>
-  </si>
-  <si>
-    <t>X1801100829141994</t>
-  </si>
-  <si>
-    <t>X1801100829141989</t>
-  </si>
-  <si>
-    <t>X1801100829141984</t>
-  </si>
-  <si>
-    <t>X1801100829141979</t>
-  </si>
-  <si>
-    <t>X1801100829141974</t>
-  </si>
-  <si>
-    <t>X1801100829141969</t>
-  </si>
-  <si>
-    <t>X1801100829141964</t>
-  </si>
-  <si>
-    <t>X1801100829131959</t>
-  </si>
-  <si>
-    <t>X1801100829131954</t>
-  </si>
-  <si>
-    <t>X1801100829131949</t>
-  </si>
-  <si>
-    <t>X1801100829131944</t>
-  </si>
-  <si>
-    <t>X1801100829131939</t>
-  </si>
-  <si>
-    <t>X1801100829131934</t>
-  </si>
-  <si>
-    <t>X1801100829131929</t>
-  </si>
-  <si>
-    <t>X1801100829131924</t>
-  </si>
-  <si>
-    <t>X1801100829131919</t>
-  </si>
-  <si>
-    <t>X1801100829131914</t>
-  </si>
-  <si>
-    <t>X1801100829131909</t>
-  </si>
-  <si>
-    <t>X1801100829121904</t>
-  </si>
-  <si>
-    <t>X1801100829121899</t>
-  </si>
-  <si>
-    <t>X1801100829121894</t>
-  </si>
-  <si>
-    <t>X1801100829121889</t>
-  </si>
-  <si>
-    <t>X1801100829121884</t>
-  </si>
-  <si>
-    <t>X1801100829121879</t>
-  </si>
-  <si>
-    <t>X1801100829121874</t>
-  </si>
-  <si>
-    <t>X1801100829121869</t>
-  </si>
-  <si>
-    <t>X1801100829121864</t>
-  </si>
-  <si>
-    <t>X1801100829121859</t>
-  </si>
-  <si>
-    <t>X1801100829111854</t>
-  </si>
-  <si>
-    <t>X1801100829111849</t>
-  </si>
-  <si>
-    <t>X1801100829111844</t>
-  </si>
-  <si>
-    <t>X1801100829111839</t>
-  </si>
-  <si>
-    <t>X1801100829111834</t>
-  </si>
-  <si>
-    <t>X1801100829111829</t>
-  </si>
-  <si>
-    <t>X1801100829111824</t>
-  </si>
-  <si>
-    <t>X1801100829111819</t>
-  </si>
-  <si>
-    <t>X1801100829111814</t>
-  </si>
-  <si>
-    <t>X1801100829111809</t>
-  </si>
-  <si>
-    <t>X1801100829101804</t>
-  </si>
-  <si>
-    <t>X1801100829101799</t>
-  </si>
-  <si>
-    <t>X1801100829101794</t>
-  </si>
-  <si>
-    <t>X1801100829101789</t>
-  </si>
-  <si>
-    <t>X1801100829101784</t>
-  </si>
-  <si>
-    <t>X1801100829101779</t>
-  </si>
-  <si>
-    <t>X1801100829101774</t>
-  </si>
-  <si>
-    <t>X1801100829101769</t>
-  </si>
-  <si>
-    <t>X1801100829101764</t>
-  </si>
-  <si>
-    <t>X1801100829101759</t>
-  </si>
-  <si>
-    <t>X1801100829091754</t>
-  </si>
-  <si>
-    <t>X1801100829091749</t>
-  </si>
-  <si>
-    <t>X1801100829091744</t>
-  </si>
-  <si>
-    <t>X1801100829091739</t>
-  </si>
-  <si>
-    <t>X1801100829091734</t>
-  </si>
-  <si>
-    <t>X1801100829091729</t>
-  </si>
-  <si>
-    <t>X1801100829091724</t>
-  </si>
-  <si>
-    <t>X1801100829091719</t>
-  </si>
-  <si>
-    <t>X1801100829091714</t>
-  </si>
-  <si>
-    <t>X1801100829091709</t>
-  </si>
-  <si>
-    <t>X1801100829081704</t>
-  </si>
-  <si>
-    <t>X1801100829081699</t>
-  </si>
-  <si>
-    <t>X1801100829081694</t>
-  </si>
-  <si>
-    <t>X1801100829081689</t>
-  </si>
-  <si>
-    <t>X1801100829081684</t>
-  </si>
-  <si>
-    <t>X1801100829081679</t>
-  </si>
-  <si>
-    <t>X1801100829081674</t>
-  </si>
-  <si>
-    <t>X1801100829081669</t>
-  </si>
-  <si>
-    <t>X1801100829081664</t>
-  </si>
-  <si>
-    <t>X1801100829081659</t>
-  </si>
-  <si>
-    <t>X1801100829071654</t>
-  </si>
-  <si>
-    <t>X1801100829071649</t>
-  </si>
-  <si>
-    <t>X1801100829071644</t>
-  </si>
-  <si>
-    <t>X1801100829071639</t>
-  </si>
-  <si>
-    <t>X1801100829071634</t>
-  </si>
-  <si>
-    <t>X1801100829071629</t>
-  </si>
-  <si>
-    <t>X1801100829071624</t>
-  </si>
-  <si>
-    <t>X1801100829071619</t>
-  </si>
-  <si>
-    <t>X1801100829071614</t>
-  </si>
-  <si>
-    <t>X1801100829071609</t>
-  </si>
-  <si>
-    <t>X1801100829061604</t>
-  </si>
-  <si>
-    <t>X1801100829061599</t>
-  </si>
-  <si>
-    <t>X1801100829061594</t>
-  </si>
-  <si>
-    <t>X1801100829061589</t>
-  </si>
-  <si>
-    <t>X1801100829061584</t>
-  </si>
-  <si>
-    <t>X1801100829061579</t>
-  </si>
-  <si>
-    <t>X1801100829061574</t>
-  </si>
-  <si>
-    <t>X1801100829061569</t>
-  </si>
-  <si>
-    <t>X1801100829061564</t>
-  </si>
-  <si>
-    <t>X1801100829061559</t>
-  </si>
-  <si>
-    <t>X1801100829061554</t>
-  </si>
-  <si>
-    <t>X1801100829051549</t>
-  </si>
-  <si>
-    <t>X1801100829051544</t>
-  </si>
-  <si>
-    <t>X1801100829051539</t>
-  </si>
-  <si>
-    <t>X1801100829051534</t>
-  </si>
-  <si>
-    <t>X1801100829051529</t>
-  </si>
-  <si>
-    <t>X1801100829051524</t>
-  </si>
-  <si>
-    <t>X1801100829051519</t>
-  </si>
-  <si>
-    <t>X1801100829051514</t>
-  </si>
-  <si>
-    <t>X1801100829051509</t>
-  </si>
-  <si>
-    <t>X1801100829051504</t>
-  </si>
-  <si>
-    <t>X1801100829041499</t>
-  </si>
-  <si>
-    <t>X1801100829041494</t>
-  </si>
-  <si>
-    <t>X1801100829041489</t>
-  </si>
-  <si>
-    <t>X1801100829041484</t>
-  </si>
-  <si>
-    <t>X1801100829041479</t>
-  </si>
-  <si>
-    <t>X1801100829041474</t>
-  </si>
-  <si>
-    <t>X1801100829041469</t>
-  </si>
-  <si>
-    <t>X1801100829041464</t>
-  </si>
-  <si>
-    <t>X1801100829041459</t>
-  </si>
-  <si>
-    <t>X1801100829041454</t>
-  </si>
-  <si>
-    <t>X1801100829031449</t>
-  </si>
-  <si>
-    <t>X1801100829031444</t>
-  </si>
-  <si>
-    <t>X1801100829031439</t>
-  </si>
-  <si>
-    <t>X1801100829031434</t>
-  </si>
-  <si>
-    <t>X1801100829031429</t>
-  </si>
-  <si>
-    <t>X1801100829031424</t>
-  </si>
-  <si>
-    <t>X1801100829031419</t>
-  </si>
-  <si>
-    <t>X1801100829031414</t>
-  </si>
-  <si>
-    <t>X1801100829031409</t>
-  </si>
-  <si>
-    <t>X1801100829031404</t>
-  </si>
-  <si>
-    <t>X1801100829021399</t>
-  </si>
-  <si>
-    <t>X1801100829021394</t>
-  </si>
-  <si>
-    <t>X1801100829021389</t>
-  </si>
-  <si>
-    <t>X1801100829021384</t>
-  </si>
-  <si>
-    <t>X1801100829021379</t>
-  </si>
-  <si>
-    <t>X1801091412490805</t>
-  </si>
-  <si>
-    <t>X1801081702561511</t>
-  </si>
-  <si>
-    <t>X1801040907110124</t>
-  </si>
-  <si>
-    <t>X1802020858000362</t>
-  </si>
-  <si>
-    <t>X1802020857590356</t>
-  </si>
-  <si>
-    <t>X1802020857580338</t>
-  </si>
-  <si>
-    <t>X1802020857580333</t>
-  </si>
-  <si>
-    <t>X1802020857570328</t>
-  </si>
-  <si>
-    <t>X1802020857570323</t>
-  </si>
-  <si>
-    <t>X1802020857560318</t>
-  </si>
-  <si>
-    <t>X1802020857540313</t>
-  </si>
-  <si>
-    <t>X1802020857540308</t>
-  </si>
-  <si>
-    <t>X1802020857520303</t>
-  </si>
-  <si>
-    <t>X1802020857510292</t>
-  </si>
-  <si>
-    <t>X1802020857510287</t>
-  </si>
-  <si>
-    <t>X1802020857510282</t>
-  </si>
-  <si>
-    <t>X1802020857500277</t>
-  </si>
-  <si>
-    <t>X1802020857500272</t>
-  </si>
-  <si>
-    <t>X1802020857490267</t>
-  </si>
-  <si>
-    <t>X1802020857490262</t>
-  </si>
-  <si>
-    <t>X1802020857490257</t>
-  </si>
-  <si>
-    <t>X1802020857480252</t>
-  </si>
-  <si>
-    <t>X1802020857480247</t>
-  </si>
-  <si>
-    <t>X1801261356114484</t>
-  </si>
-  <si>
-    <t>X1801261356094469</t>
-  </si>
-  <si>
-    <t>X1801261356084449</t>
-  </si>
-  <si>
-    <t>X1801261355544283</t>
-  </si>
-  <si>
-    <t>X1801261355263948</t>
-  </si>
-  <si>
-    <t>X1801261354413375</t>
-  </si>
-  <si>
-    <t>X1801261354363314</t>
-  </si>
-  <si>
-    <t>X1801261354363309</t>
-  </si>
-  <si>
-    <t>X1801261354363304</t>
-  </si>
-  <si>
-    <t>X1801261354203101</t>
-  </si>
-  <si>
-    <t>X1801261354173056</t>
-  </si>
-  <si>
-    <t>X1801261354163045</t>
-  </si>
-  <si>
-    <t>X1801261354153028</t>
-  </si>
-  <si>
-    <t>X1801261354143023</t>
-  </si>
-  <si>
-    <t>X1801261353562797</t>
-  </si>
-  <si>
-    <t>X1801261353562792</t>
-  </si>
-  <si>
-    <t>X1801261353552782</t>
-  </si>
-  <si>
-    <t>X1801261353552777</t>
-  </si>
-  <si>
-    <t>X1801261353552772</t>
-  </si>
-  <si>
-    <t>X1801261353542761</t>
-  </si>
-  <si>
-    <t>X1801261353532751</t>
-  </si>
-  <si>
-    <t>X1801261353522741</t>
-  </si>
-  <si>
-    <t>X1801261353522736</t>
-  </si>
-  <si>
-    <t>X1801261353512731</t>
-  </si>
-  <si>
-    <t>X1801261353442638</t>
-  </si>
-  <si>
-    <t>X1801261353362523</t>
-  </si>
-  <si>
-    <t>X1801261353322473</t>
-  </si>
-  <si>
-    <t>X1801261352521943</t>
-  </si>
-  <si>
-    <t>X1801261352451847</t>
-  </si>
-  <si>
-    <t>X1801261352211516</t>
-  </si>
-  <si>
-    <t>X1801261352111376</t>
-  </si>
-  <si>
-    <t>X1801261352011234</t>
-  </si>
-  <si>
-    <t>X1801261351591204</t>
-  </si>
-  <si>
-    <t>X1801261351461023</t>
-  </si>
-  <si>
-    <t>X1801261351100491</t>
-  </si>
-  <si>
-    <t>X1801261351100486</t>
-  </si>
-  <si>
-    <t>X1801261351100481</t>
-  </si>
-  <si>
-    <t>X1801261351090476</t>
-  </si>
-  <si>
-    <t>X1801261351090471</t>
-  </si>
-  <si>
-    <t>X1801261351090466</t>
-  </si>
-  <si>
-    <t>X1801261351080461</t>
-  </si>
-  <si>
-    <t>X1801261351080456</t>
-  </si>
-  <si>
-    <t>X1801261351070441</t>
-  </si>
-  <si>
-    <t>X1801261351050411</t>
-  </si>
-  <si>
-    <t>X1801261351030386</t>
-  </si>
-  <si>
-    <t>X1801261350450119</t>
-  </si>
-  <si>
-    <t>X1801261350440094</t>
-  </si>
-  <si>
-    <t>X1801261350440089</t>
-  </si>
-  <si>
-    <t>X1801261350430084</t>
-  </si>
-  <si>
-    <t>X1801162113340730</t>
-  </si>
-  <si>
-    <t>X1801162113340725</t>
-  </si>
-  <si>
-    <t>X1801162113330720</t>
-  </si>
-  <si>
-    <t>X1801162113330715</t>
-  </si>
-  <si>
-    <t>X1801162113320710</t>
-  </si>
-  <si>
-    <t>X1801162113320705</t>
-  </si>
-  <si>
-    <t>X1801162113320700</t>
-  </si>
-  <si>
-    <t>X1801162113310695</t>
-  </si>
-  <si>
-    <t>X1801162113310690</t>
-  </si>
-  <si>
-    <t>X1801162113300685</t>
-  </si>
-  <si>
-    <t>X1801162113300680</t>
-  </si>
-  <si>
-    <t>X1801162113300675</t>
-  </si>
-  <si>
-    <t>X1801162113290670</t>
-  </si>
-  <si>
-    <t>X1801162113290665</t>
-  </si>
-  <si>
-    <t>X1801162113280660</t>
-  </si>
-  <si>
-    <t>X1801162113280655</t>
-  </si>
-  <si>
-    <t>X1801162113280650</t>
-  </si>
-  <si>
-    <t>X1801162113270645</t>
-  </si>
-  <si>
-    <t>X1801162113270640</t>
-  </si>
-  <si>
-    <t>X1801162113260635</t>
-  </si>
-  <si>
-    <t>X1801162113260630</t>
-  </si>
-  <si>
-    <t>X1801162113260624</t>
-  </si>
-  <si>
-    <t>X1801162113250619</t>
-  </si>
-  <si>
-    <t>X1801162113250613</t>
-  </si>
-  <si>
-    <t>X1801162113240608</t>
-  </si>
-  <si>
-    <t>X1801162113240603</t>
-  </si>
-  <si>
-    <t>X1801162113240598</t>
-  </si>
-  <si>
-    <t>X1801162113230592</t>
-  </si>
-  <si>
-    <t>X1801162113230587</t>
-  </si>
-  <si>
-    <t>X1801162113220582</t>
-  </si>
-  <si>
-    <t>X1801162113220577</t>
-  </si>
-  <si>
-    <t>X1801162113220572</t>
-  </si>
-  <si>
-    <t>X1801162113210567</t>
-  </si>
-  <si>
-    <t>X1801162113210562</t>
-  </si>
-  <si>
-    <t>X1801162113210557</t>
-  </si>
-  <si>
-    <t>X1801162113200552</t>
-  </si>
-  <si>
-    <t>X1801162113200547</t>
-  </si>
-  <si>
-    <t>X1801162113190541</t>
-  </si>
-  <si>
-    <t>X1801162113190536</t>
-  </si>
-  <si>
-    <t>X1801162113190531</t>
-  </si>
-  <si>
-    <t>X1801162113180526</t>
-  </si>
-  <si>
-    <t>X1801162113180521</t>
-  </si>
-  <si>
-    <t>X1801162113180516</t>
-  </si>
-  <si>
-    <t>X1801162113170511</t>
-  </si>
-  <si>
-    <t>X1801162113170506</t>
-  </si>
-  <si>
-    <t>X1801162113160501</t>
-  </si>
-  <si>
-    <t>X1801162113160491</t>
-  </si>
-  <si>
-    <t>X1801162113150486</t>
-  </si>
-  <si>
-    <t>X1801162113150481</t>
-  </si>
-  <si>
-    <t>X1801162113140476</t>
-  </si>
-  <si>
-    <t>X1801162113140471</t>
-  </si>
-  <si>
-    <t>X1801162113140466</t>
-  </si>
-  <si>
-    <t>X1801162113130461</t>
-  </si>
-  <si>
-    <t>X1801162113130456</t>
-  </si>
-  <si>
-    <t>X1801162113120451</t>
-  </si>
-  <si>
-    <t>X1801162113120446</t>
-  </si>
-  <si>
-    <t>X1801162113120441</t>
-  </si>
-  <si>
-    <t>X1801162113110436</t>
-  </si>
-  <si>
-    <t>X1801162113110431</t>
-  </si>
-  <si>
-    <t>X1801162113100426</t>
-  </si>
-  <si>
-    <t>X1801162113100421</t>
-  </si>
-  <si>
-    <t>X1801162113100416</t>
-  </si>
-  <si>
-    <t>X1801162113090411</t>
-  </si>
-  <si>
-    <t>X1801162113090406</t>
-  </si>
-  <si>
-    <t>X1801162113080401</t>
-  </si>
-  <si>
-    <t>X1801162113080396</t>
-  </si>
-  <si>
-    <t>X1801162113070391</t>
-  </si>
-  <si>
-    <t>X1801162113070386</t>
-  </si>
-  <si>
-    <t>X1801162113070381</t>
-  </si>
-  <si>
-    <t>X1801162113060376</t>
-  </si>
-  <si>
-    <t>X1801162113060371</t>
-  </si>
-  <si>
-    <t>X1801162113050366</t>
-  </si>
-  <si>
-    <t>X1801162113050361</t>
-  </si>
-  <si>
-    <t>X1801162113050356</t>
-  </si>
-  <si>
-    <t>X1801162113040351</t>
-  </si>
-  <si>
-    <t>X1801162113040346</t>
-  </si>
-  <si>
-    <t>X1801162113030341</t>
-  </si>
-  <si>
-    <t>X1801162113030336</t>
-  </si>
-  <si>
-    <t>X1801162113030331</t>
-  </si>
-  <si>
-    <t>X1801162113020326</t>
-  </si>
-  <si>
-    <t>X1801162113020321</t>
-  </si>
-  <si>
-    <t>X1801162113010316</t>
-  </si>
-  <si>
-    <t>X1801162113010311</t>
-  </si>
-  <si>
-    <t>X1801162113010306</t>
-  </si>
-  <si>
-    <t>X1801162113000301</t>
-  </si>
-  <si>
-    <t>X1801162113000296</t>
-  </si>
-  <si>
-    <t>X1801162113000291</t>
-  </si>
-  <si>
-    <t>X1801162112590286</t>
-  </si>
-  <si>
-    <t>X1801162112590281</t>
-  </si>
-  <si>
-    <t>X1801162112580275</t>
-  </si>
-  <si>
-    <t>X1801162112580270</t>
-  </si>
-  <si>
-    <t>X1801162112570264</t>
-  </si>
-  <si>
-    <t>X1801162112570259</t>
-  </si>
-  <si>
-    <t>X1801162112570254</t>
-  </si>
-  <si>
-    <t>X1801162112560249</t>
-  </si>
-  <si>
-    <t>X1801162112560244</t>
-  </si>
-  <si>
-    <t>X1801162112560239</t>
-  </si>
-  <si>
-    <t>X1801162112550234</t>
-  </si>
-  <si>
-    <t>X1801162112550229</t>
-  </si>
-  <si>
-    <t>X1801162112540223</t>
-  </si>
-  <si>
-    <t>X1801162112540218</t>
-  </si>
-  <si>
-    <t>X1801162112540213</t>
-  </si>
-  <si>
-    <t>X1801162112530208</t>
-  </si>
-  <si>
-    <t>X1801162112530203</t>
-  </si>
-  <si>
-    <t>X1801162112520198</t>
-  </si>
-  <si>
-    <t>X1801162112520193</t>
-  </si>
-  <si>
-    <t>X1801162112520188</t>
-  </si>
-  <si>
-    <t>X1801162112510183</t>
-  </si>
-  <si>
-    <t>X1801162112510178</t>
-  </si>
-  <si>
-    <t>X1801110848080020</t>
-  </si>
-  <si>
-    <t>X1801041408350204</t>
-  </si>
-  <si>
-    <t>X1801041407390198</t>
-  </si>
-  <si>
-    <t>X1801041406350192</t>
-  </si>
-  <si>
-    <t>X1801030930170208</t>
-  </si>
-  <si>
-    <t>X1801030928090185</t>
-  </si>
-  <si>
-    <t>X1801030923180150</t>
-  </si>
-  <si>
-    <t>X1801162116573037</t>
-  </si>
-  <si>
-    <t>X1801162116573032</t>
-  </si>
-  <si>
-    <t>X1801162116573027</t>
-  </si>
-  <si>
-    <t>X1801162116563022</t>
-  </si>
-  <si>
-    <t>X1801162116563017</t>
-  </si>
-  <si>
-    <t>X1801162116553011</t>
-  </si>
-  <si>
-    <t>X1801162116553006</t>
-  </si>
-  <si>
-    <t>X1801162116543001</t>
-  </si>
-  <si>
-    <t>X1801162116542996</t>
-  </si>
-  <si>
-    <t>X1801162116532990</t>
-  </si>
-  <si>
-    <t>X1801162116532985</t>
-  </si>
-  <si>
-    <t>X1801162116522980</t>
-  </si>
-  <si>
-    <t>X1801162116522975</t>
-  </si>
-  <si>
-    <t>X1801162116512970</t>
-  </si>
-  <si>
-    <t>X1801162116512962</t>
-  </si>
-  <si>
-    <t>X1801162116502957</t>
-  </si>
-  <si>
-    <t>X1801162116502948</t>
-  </si>
-  <si>
-    <t>X1801162116492942</t>
-  </si>
-  <si>
-    <t>X1801162116492937</t>
-  </si>
-  <si>
-    <t>X1801162116482932</t>
-  </si>
-  <si>
-    <t>X1801162116482925</t>
-  </si>
-  <si>
-    <t>X1801162116472920</t>
-  </si>
-  <si>
-    <t>X1801162116472915</t>
-  </si>
-  <si>
-    <t>X1801162116462910</t>
-  </si>
-  <si>
-    <t>X1801162116462905</t>
-  </si>
-  <si>
-    <t>X1801162116452900</t>
-  </si>
-  <si>
-    <t>X1801162116452895</t>
-  </si>
-  <si>
-    <t>X1801162116452890</t>
-  </si>
-  <si>
-    <t>X1801162116442882</t>
-  </si>
-  <si>
-    <t>X1801162116432877</t>
-  </si>
-  <si>
-    <t>X1801162116432869</t>
-  </si>
-  <si>
-    <t>X1801161526280268</t>
-  </si>
-  <si>
-    <t>X1801151557450076</t>
-  </si>
-  <si>
-    <t>X1801151136010116</t>
-  </si>
-  <si>
-    <t>X1801111150060448</t>
-  </si>
-  <si>
-    <t>X1801101024400339</t>
-  </si>
-  <si>
-    <t>X1801081508491233</t>
-  </si>
-  <si>
-    <t>X1801081507391218</t>
-  </si>
-  <si>
-    <t>X1801080951030106</t>
-  </si>
-  <si>
-    <t>X1801080949540094</t>
-  </si>
-  <si>
-    <t>X1801051449290011</t>
-  </si>
-  <si>
-    <t>X1801040846180014</t>
-  </si>
-  <si>
-    <t>X1801040845210008</t>
-  </si>
-  <si>
-    <t>X1801031639290307</t>
-  </si>
-  <si>
-    <t>X1801031637060301</t>
-  </si>
-  <si>
-    <t>X1801031635580296</t>
-  </si>
-  <si>
-    <t>X1801031359270073</t>
-  </si>
-  <si>
-    <t>X1712181758520024</t>
-  </si>
-  <si>
-    <t>X1712181756410021</t>
-  </si>
-  <si>
-    <t>X1712181754450005</t>
-  </si>
-  <si>
-    <t>X1801162117023087</t>
-  </si>
-  <si>
-    <t>X1801162117013082</t>
-  </si>
-  <si>
-    <t>X1801162117013077</t>
-  </si>
-  <si>
-    <t>X1801162117003072</t>
-  </si>
-  <si>
-    <t>X1801162117003067</t>
-  </si>
-  <si>
-    <t>X1801162117003062</t>
-  </si>
-  <si>
-    <t>X1801162116593057</t>
-  </si>
-  <si>
-    <t>X1801162116593052</t>
-  </si>
-  <si>
-    <t>X1801162116583047</t>
-  </si>
-  <si>
-    <t>X1801162116583042</t>
-  </si>
-  <si>
-    <t>X1801162221138527</t>
-  </si>
-  <si>
-    <t>X1801162221128522</t>
-  </si>
-  <si>
-    <t>X1801162221118517</t>
-  </si>
-  <si>
-    <t>X1801162221248587</t>
-  </si>
-  <si>
-    <t>X1801162221008457</t>
-  </si>
-  <si>
-    <t>X1801162220588447</t>
-  </si>
-  <si>
-    <t>X1801162221098507</t>
-  </si>
-  <si>
-    <t>X1801162221088502</t>
-  </si>
-  <si>
-    <t>X1801162221148532</t>
-  </si>
-  <si>
-    <t>X1801162221078492</t>
-  </si>
-  <si>
-    <t>X1801162221278602</t>
-  </si>
-  <si>
-    <t>X1801162221258592</t>
-  </si>
-  <si>
-    <t>X1801162221268597</t>
-  </si>
-  <si>
-    <t>X1801162221048477</t>
-  </si>
-  <si>
-    <t>X1801162221228577</t>
-  </si>
-  <si>
-    <t>X1801162221238582</t>
-  </si>
-  <si>
-    <t>X1801162221178547</t>
-  </si>
-  <si>
-    <t>X1801162221038472</t>
-  </si>
-  <si>
-    <t>X1801162221168542</t>
-  </si>
-  <si>
-    <t>X1801162221188552</t>
-  </si>
-  <si>
-    <t>X1801162221058482</t>
-  </si>
-  <si>
-    <t>X1801162221018462</t>
-  </si>
-  <si>
-    <t>X1801162221288607</t>
-  </si>
-  <si>
-    <t>X1801162220598452</t>
-  </si>
-  <si>
-    <t>X1801162221218572</t>
-  </si>
-  <si>
-    <t>X1801162221108512</t>
-  </si>
-  <si>
-    <t>X1801162221208567</t>
-  </si>
-  <si>
-    <t>X1801162221068487</t>
-  </si>
-  <si>
-    <t>X1801162221198557</t>
-  </si>
-  <si>
-    <t>X1801162221028467</t>
-  </si>
-  <si>
-    <t>X1803230935492475</t>
-  </si>
-  <si>
-    <t>X1801162220398347</t>
-  </si>
-  <si>
-    <t>X1801162220378337</t>
-  </si>
-  <si>
-    <t>X1801162220368332</t>
-  </si>
-  <si>
-    <t>X1801162220338317</t>
-  </si>
-  <si>
-    <t>X1801162220228261</t>
-  </si>
-  <si>
-    <t>X1801162220198245</t>
-  </si>
-  <si>
-    <t>X1801162220198240</t>
-  </si>
-  <si>
-    <t>X1801162220178228</t>
-  </si>
-  <si>
-    <t>X1801162220148212</t>
-  </si>
-  <si>
-    <t>X1801162220118198</t>
-  </si>
-  <si>
-    <t>X1801162220118192</t>
-  </si>
-  <si>
-    <t>X1801162220108187</t>
-  </si>
-  <si>
-    <t>X1801162220088177</t>
-  </si>
-  <si>
-    <t>X1801162220068167</t>
-  </si>
-  <si>
-    <t>X1801162220058162</t>
-  </si>
-  <si>
-    <t>X1801162220038152</t>
-  </si>
-  <si>
-    <t>X1801162220028147</t>
-  </si>
-  <si>
-    <t>X1801162220018142</t>
-  </si>
-  <si>
-    <t>X1801162220008137</t>
-  </si>
-  <si>
-    <t>X1801162219598132</t>
-  </si>
-  <si>
-    <t>X1801162219588127</t>
-  </si>
-  <si>
-    <t>X1801162219578122</t>
-  </si>
-  <si>
-    <t>X1801162219568117</t>
-  </si>
-  <si>
-    <t>X1801162219558112</t>
-  </si>
-  <si>
-    <t>X1801162219548107</t>
-  </si>
-  <si>
-    <t>X1801162219538102</t>
-  </si>
-  <si>
-    <t>X1801162219528096</t>
-  </si>
-  <si>
-    <t>X1801162219518091</t>
-  </si>
-  <si>
-    <t>X1801162219498086</t>
-  </si>
-  <si>
-    <t>X1801162219488081</t>
-  </si>
-  <si>
-    <t>X1801162219478076</t>
-  </si>
-  <si>
-    <t>X1801162219468070</t>
-  </si>
-  <si>
-    <t>X1801162219458065</t>
-  </si>
-  <si>
-    <t>X1801162219448060</t>
-  </si>
-  <si>
-    <t>X1801162213386252</t>
-  </si>
-  <si>
-    <t>X1801162213376247</t>
-  </si>
-  <si>
-    <t>X1801162213356241</t>
-  </si>
-  <si>
-    <t>X1801162213346236</t>
-  </si>
-  <si>
-    <t>X1801162213346231</t>
-  </si>
-  <si>
-    <t>X1801162213326226</t>
-  </si>
-  <si>
-    <t>X1801162213316221</t>
-  </si>
-  <si>
-    <t>X1801162213306216</t>
-  </si>
-  <si>
-    <t>X1801162213296211</t>
-  </si>
-  <si>
-    <t>X1801162213286206</t>
-  </si>
-  <si>
-    <t>X1801162213276200</t>
-  </si>
-  <si>
-    <t>X1801162213266195</t>
-  </si>
-  <si>
-    <t>X1801162213256190</t>
-  </si>
-  <si>
-    <t>X1801162213246185</t>
-  </si>
-  <si>
-    <t>X1801162213236180</t>
-  </si>
-  <si>
-    <t>X1801162213226175</t>
-  </si>
-  <si>
-    <t>X1801162213206170</t>
-  </si>
-  <si>
-    <t>X1801162213196165</t>
-  </si>
-  <si>
-    <t>X1801162213186160</t>
-  </si>
-  <si>
-    <t>X1801162213176155</t>
-  </si>
-  <si>
-    <t>X1801162213166150</t>
-  </si>
-  <si>
-    <t>X1801162213146145</t>
-  </si>
-  <si>
-    <t>X1801162213136140</t>
-  </si>
-  <si>
-    <t>X1801162213126135</t>
-  </si>
-  <si>
-    <t>X1801162213116130</t>
-  </si>
-  <si>
-    <t>X1801151604160089</t>
-  </si>
-  <si>
-    <t>X1801121627080782</t>
-  </si>
-  <si>
-    <t>X1801111158130467</t>
-  </si>
-  <si>
-    <t>X1801081404110878</t>
-  </si>
-  <si>
-    <t>X1801080949040086</t>
-  </si>
-  <si>
-    <t>X1801080939430067</t>
-  </si>
-  <si>
-    <t>X1801051509000066</t>
-  </si>
-  <si>
-    <t>X1801041355210163</t>
-  </si>
-  <si>
-    <t>X1801040921040228</t>
-  </si>
-  <si>
-    <t>X1801031643330313</t>
-  </si>
-  <si>
-    <t>X1801031617020266</t>
-  </si>
-  <si>
-    <t>X1801031616100261</t>
-  </si>
-  <si>
-    <t>X1801031029280286</t>
-  </si>
-  <si>
-    <t>X1801162220358327</t>
-  </si>
-  <si>
-    <t>X1801162220308302</t>
-  </si>
-  <si>
-    <t>X1801162220298297</t>
-  </si>
-  <si>
-    <t>X1801162220288292</t>
-  </si>
-  <si>
-    <t>X1801162220278287</t>
-  </si>
-  <si>
-    <t>X1801162220268282</t>
-  </si>
-  <si>
-    <t>X1801162220258277</t>
-  </si>
-  <si>
-    <t>X1801162220248272</t>
-  </si>
-  <si>
-    <t>X1801162220238266</t>
-  </si>
-  <si>
-    <t>X1801162220218256</t>
-  </si>
-  <si>
-    <t>X1801162220208251</t>
-  </si>
-  <si>
-    <t>X1801162220178234</t>
-  </si>
-  <si>
-    <t>X1801162220168223</t>
-  </si>
-  <si>
-    <t>X1801162220158217</t>
-  </si>
-  <si>
-    <t>X1801162220128203</t>
-  </si>
-  <si>
-    <t>X1801162220098182</t>
-  </si>
-  <si>
-    <t>X1801162220078172</t>
-  </si>
-  <si>
-    <t>X1801162220048157</t>
-  </si>
-  <si>
-    <t>X1803230909172318</t>
-  </si>
-  <si>
-    <t>X1801162235472764</t>
-  </si>
-  <si>
-    <t>X1801162235462759</t>
-  </si>
-  <si>
-    <t>X1801162235452754</t>
-  </si>
-  <si>
-    <t>X1801162235442749</t>
-  </si>
-  <si>
-    <t>X1801162235432744</t>
-  </si>
-  <si>
-    <t>X1801162235422739</t>
-  </si>
-  <si>
-    <t>X1801162235412734</t>
-  </si>
-  <si>
-    <t>X1801162235402729</t>
-  </si>
-  <si>
-    <t>X1801162235392724</t>
-  </si>
-  <si>
-    <t>X1801162235382719</t>
-  </si>
-  <si>
-    <t>X1801162235372714</t>
-  </si>
-  <si>
-    <t>X1801162235352704</t>
-  </si>
-  <si>
-    <t>X1801162235342699</t>
-  </si>
-  <si>
-    <t>X1801162235322694</t>
-  </si>
-  <si>
-    <t>X1801162235312689</t>
-  </si>
-  <si>
-    <t>X1801162235292679</t>
-  </si>
-  <si>
-    <t>X1801162235282674</t>
-  </si>
-  <si>
-    <t>X1801162235272669</t>
-  </si>
-  <si>
-    <t>X1801162235262664</t>
-  </si>
-  <si>
-    <t>X1801162235252659</t>
-  </si>
-  <si>
-    <t>X1801162235232649</t>
-  </si>
-  <si>
-    <t>X1801162235222644</t>
-  </si>
-  <si>
-    <t>X1801162235212639</t>
-  </si>
-  <si>
-    <t>X1801162235192629</t>
-  </si>
-  <si>
-    <t>X1801162235182624</t>
-  </si>
-  <si>
-    <t>X1801162235152614</t>
-  </si>
-  <si>
-    <t>X1801162235142609</t>
-  </si>
-  <si>
-    <t>X1801162235132604</t>
-  </si>
-  <si>
-    <t>X1801162235122599</t>
-  </si>
-  <si>
-    <t>X1801162235102589</t>
-  </si>
-  <si>
-    <t>X1801162235092584</t>
-  </si>
-  <si>
-    <t>X1801162235082579</t>
-  </si>
-  <si>
-    <t>X1801162235072574</t>
-  </si>
-  <si>
-    <t>X1801162235062569</t>
-  </si>
-  <si>
-    <t>X1801162235052564</t>
-  </si>
-  <si>
-    <t>X1801162235042558</t>
-  </si>
-  <si>
-    <t>X1801162235032553</t>
-  </si>
-  <si>
-    <t>X1801162235022548</t>
-  </si>
-  <si>
-    <t>X1801162235012543</t>
-  </si>
-  <si>
-    <t>X1801162234592538</t>
-  </si>
-  <si>
-    <t>X1801162234572528</t>
-  </si>
-  <si>
-    <t>X1801162234562523</t>
-  </si>
-  <si>
-    <t>X1801162234552518</t>
-  </si>
-  <si>
-    <t>X1801162234542513</t>
-  </si>
-  <si>
-    <t>X1801162234532508</t>
-  </si>
-  <si>
-    <t>X1801162234512497</t>
-  </si>
-  <si>
-    <t>X1801162234502492</t>
-  </si>
-  <si>
-    <t>X1801162234492487</t>
-  </si>
-  <si>
-    <t>X1801162234482482</t>
-  </si>
-  <si>
-    <t>X1801162234472477</t>
-  </si>
-  <si>
-    <t>X1801162234462472</t>
-  </si>
-  <si>
-    <t>X1801162234432462</t>
-  </si>
-  <si>
-    <t>X1801162234422457</t>
-  </si>
-  <si>
-    <t>X1801162234412452</t>
-  </si>
-  <si>
-    <t>X1801162234402447</t>
-  </si>
-  <si>
-    <t>X1801162234392442</t>
-  </si>
-  <si>
-    <t>X1801162234382437</t>
-  </si>
-  <si>
-    <t>X1801162234372432</t>
-  </si>
-  <si>
-    <t>X1801162234362427</t>
-  </si>
-  <si>
-    <t>X1801162234352422</t>
-  </si>
-  <si>
-    <t>X1801162234342417</t>
-  </si>
-  <si>
-    <t>X1801162234332412</t>
-  </si>
-  <si>
-    <t>X1801162234322407</t>
-  </si>
-  <si>
-    <t>X1801162234312402</t>
-  </si>
-  <si>
-    <t>X1801162234302397</t>
-  </si>
-  <si>
-    <t>X1801162234292392</t>
-  </si>
-  <si>
-    <t>X1801162234272387</t>
-  </si>
-  <si>
-    <t>X1801162234242377</t>
-  </si>
-  <si>
-    <t>X1801162234232372</t>
-  </si>
-  <si>
-    <t>X1801162234222367</t>
-  </si>
-  <si>
-    <t>X1801162234212362</t>
-  </si>
-  <si>
-    <t>X1801162234182347</t>
-  </si>
-  <si>
-    <t>X1801162220388342</t>
-  </si>
-  <si>
-    <t>X1801162220348322</t>
-  </si>
-  <si>
-    <t>X1801162220328312</t>
-  </si>
-  <si>
-    <t>X1801162220318307</t>
-  </si>
-  <si>
-    <t>X1801101530370639</t>
-  </si>
-  <si>
-    <t>X1712191449400010</t>
-  </si>
-  <si>
-    <t>X1712181745020092</t>
-  </si>
-  <si>
-    <t>X1801162123427086</t>
-  </si>
-  <si>
-    <t>X1801162123427081</t>
-  </si>
-  <si>
-    <t>X1801162123417076</t>
-  </si>
-  <si>
-    <t>X1801162123417071</t>
-  </si>
-  <si>
-    <t>X1801162123407066</t>
-  </si>
-  <si>
-    <t>X1801162123407061</t>
-  </si>
-  <si>
-    <t>X1801162123397056</t>
-  </si>
-  <si>
-    <t>X1801162123397051</t>
-  </si>
-  <si>
-    <t>X1801162123387046</t>
-  </si>
-  <si>
-    <t>X1801162123387041</t>
-  </si>
-  <si>
-    <t>X1801162123377036</t>
-  </si>
-  <si>
-    <t>X1801162123377031</t>
-  </si>
-  <si>
-    <t>X1801162123367026</t>
-  </si>
-  <si>
-    <t>X1801162123367021</t>
-  </si>
-  <si>
-    <t>X1801162123357016</t>
-  </si>
-  <si>
-    <t>X1801162123357011</t>
-  </si>
-  <si>
-    <t>X1801162123347006</t>
-  </si>
-  <si>
-    <t>X1801162123347001</t>
-  </si>
-  <si>
-    <t>X1801162123336996</t>
-  </si>
-  <si>
-    <t>X1801162123336991</t>
-  </si>
-  <si>
-    <t>X1801162123326986</t>
-  </si>
-  <si>
-    <t>X1801162123316981</t>
-  </si>
-  <si>
-    <t>X1801162123316976</t>
-  </si>
-  <si>
-    <t>X1801162123306971</t>
-  </si>
-  <si>
-    <t>X1801162123306966</t>
-  </si>
-  <si>
-    <t>X1801162123296961</t>
-  </si>
-  <si>
-    <t>X1801162123296956</t>
-  </si>
-  <si>
-    <t>X1801162123286951</t>
-  </si>
-  <si>
-    <t>X1801162123286946</t>
-  </si>
-  <si>
-    <t>X1801162123276941</t>
-  </si>
-  <si>
-    <t>X1801162123276936</t>
-  </si>
-  <si>
-    <t>X1801162123266931</t>
-  </si>
-  <si>
-    <t>X1801162123266926</t>
-  </si>
-  <si>
-    <t>X1801162123256921</t>
-  </si>
-  <si>
-    <t>X1801162123256916</t>
-  </si>
-  <si>
-    <t>X1801162123246911</t>
-  </si>
-  <si>
-    <t>X1801162123246906</t>
-  </si>
-  <si>
-    <t>X1801162123236901</t>
-  </si>
-  <si>
-    <t>X1801162123226896</t>
-  </si>
-  <si>
-    <t>X1801162123226891</t>
-  </si>
-  <si>
-    <t>X1801162123216886</t>
-  </si>
-  <si>
-    <t>X1801162123216881</t>
-  </si>
-  <si>
-    <t>X1801162123206876</t>
-  </si>
-  <si>
-    <t>X1801162123206871</t>
-  </si>
-  <si>
-    <t>X1801162123196866</t>
-  </si>
-  <si>
-    <t>X1801162123196861</t>
-  </si>
-  <si>
-    <t>X1801162123186856</t>
-  </si>
-  <si>
-    <t>X1801162123186851</t>
-  </si>
-  <si>
-    <t>X1801162123176846</t>
-  </si>
-  <si>
-    <t>X1801162123176841</t>
-  </si>
-  <si>
-    <t>X1801162123166836</t>
-  </si>
-  <si>
-    <t>X1801162123166831</t>
-  </si>
-  <si>
-    <t>X1801162123156826</t>
-  </si>
-  <si>
-    <t>X1801162123156821</t>
-  </si>
-  <si>
-    <t>X1801162123146816</t>
-  </si>
-  <si>
-    <t>X1801162123136811</t>
-  </si>
-  <si>
-    <t>X1801162123136806</t>
-  </si>
-  <si>
-    <t>X1801162123126801</t>
-  </si>
-  <si>
-    <t>X1801162123126796</t>
-  </si>
-  <si>
-    <t>X1801162123126791</t>
-  </si>
-  <si>
-    <t>X1801162123116786</t>
-  </si>
-  <si>
-    <t>X1801162123106781</t>
-  </si>
-  <si>
-    <t>X1801162123106776</t>
-  </si>
-  <si>
-    <t>X1801162123096771</t>
-  </si>
-  <si>
-    <t>X1801162123096766</t>
-  </si>
-  <si>
-    <t>X1801162123086761</t>
-  </si>
-  <si>
-    <t>X1801162123086756</t>
-  </si>
-  <si>
-    <t>X1801162123076751</t>
-  </si>
-  <si>
-    <t>X1801162123076746</t>
-  </si>
-  <si>
-    <t>X1801162123066741</t>
-  </si>
-  <si>
-    <t>X1801162123066736</t>
-  </si>
-  <si>
-    <t>X1801162123056731</t>
-  </si>
-  <si>
-    <t>X1801162123056726</t>
-  </si>
-  <si>
-    <t>X1801162123046721</t>
-  </si>
-  <si>
-    <t>X1801162123046716</t>
-  </si>
-  <si>
-    <t>X1801162123036711</t>
-  </si>
-  <si>
-    <t>X1801162123036706</t>
-  </si>
-  <si>
-    <t>X1801162123026701</t>
-  </si>
-  <si>
-    <t>X1801162123026696</t>
-  </si>
-  <si>
-    <t>X1801162123016691</t>
-  </si>
-  <si>
-    <t>X1801162123006686</t>
-  </si>
-  <si>
-    <t>X1801162123006681</t>
-  </si>
-  <si>
-    <t>X1801162122596676</t>
-  </si>
-  <si>
-    <t>X1801162122596671</t>
-  </si>
-  <si>
-    <t>X1801162122586666</t>
-  </si>
-  <si>
-    <t>X1801162122586661</t>
-  </si>
-  <si>
-    <t>X1801162122576656</t>
-  </si>
-  <si>
-    <t>X1801162122576651</t>
-  </si>
-  <si>
-    <t>X1801162122566646</t>
-  </si>
-  <si>
-    <t>X1801162122566641</t>
-  </si>
-  <si>
-    <t>X1801162134022346</t>
-  </si>
-  <si>
-    <t>X1801162127078963</t>
-  </si>
-  <si>
-    <t>X1801162127068958</t>
-  </si>
-  <si>
-    <t>X1801162127068953</t>
-  </si>
-  <si>
-    <t>X1801162127058948</t>
-  </si>
-  <si>
-    <t>X1801162127048943</t>
-  </si>
-  <si>
-    <t>X1801162127048938</t>
-  </si>
-  <si>
-    <t>X1801162127038933</t>
-  </si>
-  <si>
-    <t>X1801162127038928</t>
-  </si>
-  <si>
-    <t>X1801162127028923</t>
-  </si>
-  <si>
-    <t>X1801162127028918</t>
-  </si>
-  <si>
-    <t>X1801162127018913</t>
-  </si>
-  <si>
-    <t>X1801162127008908</t>
-  </si>
-  <si>
-    <t>X1801162127008903</t>
-  </si>
-  <si>
-    <t>X1801162126598898</t>
-  </si>
-  <si>
-    <t>X1801162126598893</t>
-  </si>
-  <si>
-    <t>X1801162126588888</t>
-  </si>
-  <si>
-    <t>X1801162126588883</t>
-  </si>
-  <si>
-    <t>X1801162126578878</t>
-  </si>
-  <si>
-    <t>X1801162126568873</t>
-  </si>
-  <si>
-    <t>X1801162126568868</t>
-  </si>
-  <si>
-    <t>X1801162126558862</t>
-  </si>
-  <si>
-    <t>X1801162126558857</t>
-  </si>
-  <si>
-    <t>X1801162126548852</t>
-  </si>
-  <si>
-    <t>X1801162126548847</t>
-  </si>
-  <si>
-    <t>X1801162126538842</t>
-  </si>
-  <si>
-    <t>X1801162126538837</t>
-  </si>
-  <si>
-    <t>X1801162126528832</t>
-  </si>
-  <si>
-    <t>X1801162126518827</t>
-  </si>
-  <si>
-    <t>X1801162126518822</t>
-  </si>
-  <si>
-    <t>X1801162126508817</t>
-  </si>
-  <si>
-    <t>X1801162126508812</t>
-  </si>
-  <si>
-    <t>X1801162126498807</t>
-  </si>
-  <si>
-    <t>X1801162126498802</t>
-  </si>
-  <si>
-    <t>X1801162126488797</t>
-  </si>
-  <si>
-    <t>X1801162126478792</t>
-  </si>
-  <si>
-    <t>X1801162126478786</t>
-  </si>
-  <si>
-    <t>X1801162126468781</t>
-  </si>
-  <si>
-    <t>X1801162126468776</t>
-  </si>
-  <si>
-    <t>X1801162126458771</t>
-  </si>
-  <si>
-    <t>X1801162126458766</t>
-  </si>
-  <si>
-    <t>X1801162126448761</t>
-  </si>
-  <si>
-    <t>X1801162126438756</t>
-  </si>
-  <si>
-    <t>X1801162126438751</t>
-  </si>
-  <si>
-    <t>X1801162126428746</t>
-  </si>
-  <si>
-    <t>X1801162126428741</t>
-  </si>
-  <si>
-    <t>X1801162126418736</t>
-  </si>
-  <si>
-    <t>X1801162126418731</t>
-  </si>
-  <si>
-    <t>X1801162126408726</t>
-  </si>
-  <si>
-    <t>X1801162126398720</t>
-  </si>
-  <si>
-    <t>X1801162126398715</t>
-  </si>
-  <si>
-    <t>X1801162126388710</t>
-  </si>
-  <si>
-    <t>X1801162126388705</t>
-  </si>
-  <si>
-    <t>X1801162126378700</t>
-  </si>
-  <si>
-    <t>X1801162126378695</t>
-  </si>
-  <si>
-    <t>X1801162126368689</t>
-  </si>
-  <si>
-    <t>X1801162126358684</t>
-  </si>
-  <si>
-    <t>X1801162126358679</t>
-  </si>
-  <si>
-    <t>X1801162126348674</t>
-  </si>
-  <si>
-    <t>X1801162126348669</t>
-  </si>
-  <si>
-    <t>X1801162126338664</t>
-  </si>
-  <si>
-    <t>X1801162126328659</t>
-  </si>
-  <si>
-    <t>X1801162126328654</t>
-  </si>
-  <si>
-    <t>X1801162126318649</t>
-  </si>
-  <si>
-    <t>X1801162126318644</t>
-  </si>
-  <si>
-    <t>X1801162126308639</t>
-  </si>
-  <si>
-    <t>X1801162126308634</t>
-  </si>
-  <si>
-    <t>X1801162126298629</t>
-  </si>
-  <si>
-    <t>X1801162126288624</t>
-  </si>
-  <si>
-    <t>X1801162126288619</t>
-  </si>
-  <si>
-    <t>X1801162126278614</t>
-  </si>
-  <si>
-    <t>X1801162126278609</t>
-  </si>
-  <si>
-    <t>X1801162126268604</t>
-  </si>
-  <si>
-    <t>X1801162126268599</t>
-  </si>
-  <si>
-    <t>X1801162126258594</t>
-  </si>
-  <si>
-    <t>X1801162126258589</t>
-  </si>
-  <si>
-    <t>X1801162126248584</t>
-  </si>
-  <si>
-    <t>X1801162126248579</t>
-  </si>
-  <si>
-    <t>X1801162126238574</t>
-  </si>
-  <si>
-    <t>X1801162126228569</t>
-  </si>
-  <si>
-    <t>X1801162126228564</t>
-  </si>
-  <si>
-    <t>X1801162126218559</t>
-  </si>
-  <si>
-    <t>X1801162126218554</t>
-  </si>
-  <si>
-    <t>X1801162126208549</t>
-  </si>
-  <si>
-    <t>X1801162126208544</t>
-  </si>
-  <si>
-    <t>X1801162126198539</t>
-  </si>
-  <si>
-    <t>X1801162126198534</t>
-  </si>
-  <si>
-    <t>X1801162126188529</t>
-  </si>
-  <si>
-    <t>X1801162126188524</t>
-  </si>
-  <si>
-    <t>X1801162126178519</t>
-  </si>
-  <si>
-    <t>X1801162126178514</t>
-  </si>
-  <si>
-    <t>X1801162126168509</t>
-  </si>
-  <si>
-    <t>X1801162126168504</t>
-  </si>
-  <si>
-    <t>X1801162126158499</t>
-  </si>
-  <si>
-    <t>X1801162126158494</t>
-  </si>
-  <si>
-    <t>X1801162126148489</t>
-  </si>
-  <si>
-    <t>X1801162126148484</t>
-  </si>
-  <si>
-    <t>X1801162126138479</t>
-  </si>
-  <si>
-    <t>X1801162126138474</t>
-  </si>
-  <si>
-    <t>X1801162126128469</t>
-  </si>
-  <si>
-    <t>X1801162126118464</t>
-  </si>
-  <si>
-    <t>X1801162126118458</t>
-  </si>
-  <si>
-    <t>X1801162126108453</t>
-  </si>
-  <si>
-    <t>X1801162126108448</t>
-  </si>
-  <si>
-    <t>X1801162126098442</t>
-  </si>
-  <si>
-    <t>X1801162126088437</t>
-  </si>
-  <si>
-    <t>X1801162126088432</t>
-  </si>
-  <si>
-    <t>X1801162126078427</t>
-  </si>
-  <si>
-    <t>X1801162126078422</t>
-  </si>
-  <si>
-    <t>X1801162126068417</t>
-  </si>
-  <si>
-    <t>X1801162126068412</t>
-  </si>
-  <si>
-    <t>X1801162126058407</t>
-  </si>
-  <si>
-    <t>X1801162126058402</t>
-  </si>
-  <si>
-    <t>X1801162126048397</t>
-  </si>
-  <si>
-    <t>X1801162126048392</t>
-  </si>
-  <si>
-    <t>X1801162126038387</t>
-  </si>
-  <si>
-    <t>X1801162126038382</t>
-  </si>
-  <si>
-    <t>X1801162126028377</t>
-  </si>
-  <si>
-    <t>X1801162126018372</t>
-  </si>
-  <si>
-    <t>X1801162126018367</t>
-  </si>
-  <si>
-    <t>X1801162126008362</t>
-  </si>
-  <si>
-    <t>X1801162126008357</t>
-  </si>
-  <si>
-    <t>X1801162125598352</t>
-  </si>
-  <si>
-    <t>X1801162125598347</t>
-  </si>
-  <si>
-    <t>X1801162125588342</t>
-  </si>
-  <si>
-    <t>X1801162125588337</t>
-  </si>
-  <si>
-    <t>X1801162125578332</t>
-  </si>
-  <si>
-    <t>X1801162125578327</t>
-  </si>
-  <si>
-    <t>X1801162125568322</t>
-  </si>
-  <si>
-    <t>X1801162125568317</t>
-  </si>
-  <si>
-    <t>X1801162125558312</t>
-  </si>
-  <si>
-    <t>X1801162125548307</t>
-  </si>
-  <si>
-    <t>X1801162125548302</t>
-  </si>
-  <si>
-    <t>X1801162125538297</t>
-  </si>
-  <si>
-    <t>X1801162125538292</t>
-  </si>
-  <si>
-    <t>X1801162125528287</t>
-  </si>
-  <si>
-    <t>X1801162125528282</t>
-  </si>
-  <si>
-    <t>X1801162125518277</t>
-  </si>
-  <si>
-    <t>X1801162125518272</t>
-  </si>
-  <si>
-    <t>X1801162125508267</t>
-  </si>
-  <si>
-    <t>X1801162125498262</t>
-  </si>
-  <si>
-    <t>X1801162125498257</t>
-  </si>
-  <si>
-    <t>X1801162125488252</t>
-  </si>
-  <si>
-    <t>X1801162125488247</t>
-  </si>
-  <si>
-    <t>X1801162125478242</t>
-  </si>
-  <si>
-    <t>X1801162125478237</t>
-  </si>
-  <si>
-    <t>X1801162125468232</t>
-  </si>
-  <si>
-    <t>X1801162125468227</t>
-  </si>
-  <si>
-    <t>X1801162125458222</t>
-  </si>
-  <si>
-    <t>X1801162125448217</t>
-  </si>
-  <si>
-    <t>X1801162125448212</t>
-  </si>
-  <si>
-    <t>X1801162125438207</t>
-  </si>
-  <si>
-    <t>X1801162125438202</t>
-  </si>
-  <si>
-    <t>X1801162125428197</t>
-  </si>
-  <si>
-    <t>X1801162125428192</t>
-  </si>
-  <si>
-    <t>X1801162125418187</t>
-  </si>
-  <si>
-    <t>X1801162125418182</t>
-  </si>
-  <si>
-    <t>X1801162125408177</t>
-  </si>
-  <si>
-    <t>X1801162125408172</t>
-  </si>
-  <si>
-    <t>X1801162125398167</t>
-  </si>
-  <si>
-    <t>X1801162125398162</t>
-  </si>
-  <si>
-    <t>X1801162125388157</t>
-  </si>
-  <si>
-    <t>X1801162125388152</t>
-  </si>
-  <si>
-    <t>X1801162125378147</t>
-  </si>
-  <si>
-    <t>X1801162125378142</t>
-  </si>
-  <si>
-    <t>X1801162125368137</t>
-  </si>
-  <si>
-    <t>X1801162125358132</t>
-  </si>
-  <si>
-    <t>X1801162125358127</t>
-  </si>
-  <si>
-    <t>X1801162125348122</t>
-  </si>
-  <si>
-    <t>X1801162125348117</t>
-  </si>
-  <si>
-    <t>X1801162125338112</t>
-  </si>
-  <si>
-    <t>X1801161402130106</t>
-  </si>
-  <si>
-    <t>X1801121547070696</t>
-  </si>
-  <si>
-    <t>X1801081704581519</t>
-  </si>
-  <si>
-    <t>X1801081349020807</t>
-  </si>
-  <si>
-    <t>X1801041347450157</t>
-  </si>
-  <si>
-    <t>X1801041115450046</t>
-  </si>
-  <si>
-    <t>X1802081821025863</t>
-  </si>
-  <si>
-    <t>X1802081822176802</t>
-  </si>
-  <si>
-    <t>X1802081823087432</t>
-  </si>
-  <si>
-    <t>X1801240957350108</t>
-  </si>
-  <si>
-    <t>X1801240957350103</t>
-  </si>
-  <si>
-    <t>X1801240957340098</t>
-  </si>
-  <si>
-    <t>X1801240957340093</t>
-  </si>
-  <si>
-    <t>X1801240957330088</t>
-  </si>
-  <si>
-    <t>X1801240957330083</t>
-  </si>
-  <si>
-    <t>X1801240957320078</t>
-  </si>
-  <si>
-    <t>X1801240957320073</t>
-  </si>
-  <si>
-    <t>X1801240957310068</t>
-  </si>
-  <si>
-    <t>X1801240957300063</t>
-  </si>
-  <si>
-    <t>X1801240957300058</t>
-  </si>
-  <si>
-    <t>X1801240957290053</t>
-  </si>
-  <si>
-    <t>X1801240957290048</t>
-  </si>
-  <si>
-    <t>X1801240957280043</t>
-  </si>
-  <si>
-    <t>X1801240957280038</t>
-  </si>
-  <si>
-    <t>X1803061408284055</t>
-  </si>
-  <si>
-    <t>X1803061406394034</t>
-  </si>
-  <si>
-    <t>X1803061404144015</t>
-  </si>
-  <si>
-    <t>X1802081823177538</t>
-  </si>
-  <si>
-    <t>X1802081823177533</t>
-  </si>
-  <si>
-    <t>X1801240956439633</t>
-  </si>
-  <si>
-    <t>X1801240956439628</t>
-  </si>
-  <si>
-    <t>X1801240956429623</t>
-  </si>
-  <si>
-    <t>X1801240956429618</t>
-  </si>
-  <si>
-    <t>X1801240956419613</t>
-  </si>
-  <si>
-    <t>X1801240956419608</t>
-  </si>
-  <si>
-    <t>X1801240956409603</t>
-  </si>
-  <si>
-    <t>X1801240956409598</t>
-  </si>
-  <si>
-    <t>X1801240956399593</t>
-  </si>
-  <si>
-    <t>X1801240956399588</t>
-  </si>
-  <si>
-    <t>X1801240956389583</t>
-  </si>
-  <si>
-    <t>X1801240956389578</t>
-  </si>
-  <si>
-    <t>X1801240956379573</t>
-  </si>
-  <si>
-    <t>X1801240956379568</t>
-  </si>
-  <si>
-    <t>X1801240956369563</t>
-  </si>
-  <si>
-    <t>X1801240956359558</t>
-  </si>
-  <si>
-    <t>X1801240956359553</t>
-  </si>
-  <si>
-    <t>X1801240956349548</t>
-  </si>
-  <si>
-    <t>X1801240956349543</t>
-  </si>
-  <si>
-    <t>X1801240956339538</t>
-  </si>
-  <si>
-    <t>X1801240956329533</t>
-  </si>
-  <si>
-    <t>X1801240956309528</t>
-  </si>
-  <si>
-    <t>X1801240956309523</t>
-  </si>
-  <si>
-    <t>X1801240956299518</t>
-  </si>
-  <si>
-    <t>X1801240956299513</t>
-  </si>
-  <si>
-    <t>X1801240956289508</t>
-  </si>
-  <si>
-    <t>X1801240956289503</t>
-  </si>
-  <si>
-    <t>X1801240956279498</t>
-  </si>
-  <si>
-    <t>X1801240956279493</t>
-  </si>
-  <si>
-    <t>X1801240956269488</t>
-  </si>
-  <si>
-    <t>X1801240956269483</t>
-  </si>
-  <si>
-    <t>X1801240956259478</t>
-  </si>
-  <si>
-    <t>X1801240956259473</t>
-  </si>
-  <si>
-    <t>X1801240956249468</t>
-  </si>
-  <si>
-    <t>X1801240956239462</t>
-  </si>
-  <si>
-    <t>X1801240956239457</t>
-  </si>
-  <si>
-    <t>X1801240956229451</t>
-  </si>
-  <si>
-    <t>X1801240956229446</t>
-  </si>
-  <si>
-    <t>X1801240956219441</t>
-  </si>
-  <si>
-    <t>X1801240956209436</t>
-  </si>
-  <si>
-    <t>X1801240956209431</t>
-  </si>
-  <si>
-    <t>X1801240956199426</t>
-  </si>
-  <si>
-    <t>X1801240956199421</t>
-  </si>
-  <si>
-    <t>X1801240956189416</t>
-  </si>
-  <si>
-    <t>X1801240956189411</t>
-  </si>
-  <si>
-    <t>X1801240956179406</t>
-  </si>
-  <si>
-    <t>X1801240956179401</t>
-  </si>
-  <si>
-    <t>X1801240956169396</t>
-  </si>
-  <si>
-    <t>X1801240956159391</t>
-  </si>
-  <si>
-    <t>X1801240956159386</t>
-  </si>
-  <si>
-    <t>X1801240956149381</t>
-  </si>
-  <si>
-    <t>X1801240956149376</t>
-  </si>
-  <si>
-    <t>X1801240956139371</t>
-  </si>
-  <si>
-    <t>X1801240956139366</t>
-  </si>
-  <si>
-    <t>X1801240956129361</t>
-  </si>
-  <si>
-    <t>X1801240956129356</t>
-  </si>
-  <si>
-    <t>X1801240956119351</t>
-  </si>
-  <si>
-    <t>X1801240956109346</t>
-  </si>
-  <si>
-    <t>X1801240956109341</t>
-  </si>
-  <si>
-    <t>X1801240956099336</t>
-  </si>
-  <si>
-    <t>X1801240956099331</t>
-  </si>
-  <si>
-    <t>X1801240956089326</t>
-  </si>
-  <si>
-    <t>X1801240956089321</t>
-  </si>
-  <si>
-    <t>X1801240956079316</t>
-  </si>
-  <si>
-    <t>X1801240956079311</t>
-  </si>
-  <si>
-    <t>X1801240956069306</t>
-  </si>
-  <si>
-    <t>X1801240956059301</t>
-  </si>
-  <si>
-    <t>X1801240956059296</t>
-  </si>
-  <si>
-    <t>X1801240956049291</t>
-  </si>
-  <si>
-    <t>X1801240956049286</t>
-  </si>
-  <si>
-    <t>X1801240956039281</t>
-  </si>
-  <si>
-    <t>X1801240956039276</t>
-  </si>
-  <si>
-    <t>X1801240956029271</t>
-  </si>
-  <si>
-    <t>X1801240956029266</t>
-  </si>
-  <si>
-    <t>X1801240956019261</t>
-  </si>
-  <si>
-    <t>X1801240956019256</t>
-  </si>
-  <si>
-    <t>X1801240956009251</t>
-  </si>
-  <si>
-    <t>X1801240955599246</t>
-  </si>
-  <si>
-    <t>X1801240955599241</t>
-  </si>
-  <si>
-    <t>X1801240955589236</t>
-  </si>
-  <si>
-    <t>X1801240955589231</t>
-  </si>
-  <si>
-    <t>X1801240955579226</t>
-  </si>
-  <si>
-    <t>X1801240955579221</t>
-  </si>
-  <si>
-    <t>X1801240955569216</t>
-  </si>
-  <si>
-    <t>X1801240955569211</t>
-  </si>
-  <si>
-    <t>X1801240955559206</t>
-  </si>
-  <si>
-    <t>X1801240955559201</t>
-  </si>
-  <si>
-    <t>X1801240955549196</t>
-  </si>
-  <si>
-    <t>X1801240955549191</t>
-  </si>
-  <si>
-    <t>X1801240955539186</t>
-  </si>
-  <si>
-    <t>X1801240955539181</t>
-  </si>
-  <si>
-    <t>X1801240955529176</t>
-  </si>
-  <si>
-    <t>X1801240955519171</t>
-  </si>
-  <si>
-    <t>X1801240955519166</t>
-  </si>
-  <si>
-    <t>X1801240955519161</t>
-  </si>
-  <si>
-    <t>X1801240955509156</t>
-  </si>
-  <si>
-    <t>X1801240955509151</t>
-  </si>
-  <si>
-    <t>X1801240955499146</t>
-  </si>
-  <si>
-    <t>X1801240955499141</t>
-  </si>
-  <si>
-    <t>X1801240955489136</t>
-  </si>
-  <si>
-    <t>X1801240955489131</t>
-  </si>
-  <si>
-    <t>X1801240955479126</t>
-  </si>
-  <si>
-    <t>X1801240955479121</t>
-  </si>
-  <si>
-    <t>X1801240955469116</t>
-  </si>
-  <si>
-    <t>X1801240955469111</t>
-  </si>
-  <si>
-    <t>X1801240955459106</t>
-  </si>
-  <si>
-    <t>X1801240955449101</t>
-  </si>
-  <si>
-    <t>X1801240955449096</t>
-  </si>
-  <si>
-    <t>X1801240955439091</t>
-  </si>
-  <si>
-    <t>X1801240955439086</t>
-  </si>
-  <si>
-    <t>X1801240955429081</t>
-  </si>
-  <si>
-    <t>X1801240955429076</t>
-  </si>
-  <si>
-    <t>X1801240955419071</t>
-  </si>
-  <si>
-    <t>X1801240955419066</t>
-  </si>
-  <si>
-    <t>X1801240955409060</t>
-  </si>
-  <si>
-    <t>X1801240955409055</t>
-  </si>
-  <si>
-    <t>X1801240955399050</t>
-  </si>
-  <si>
-    <t>X1801240955399045</t>
-  </si>
-  <si>
-    <t>X1801240955389040</t>
-  </si>
-  <si>
-    <t>X1801240955389035</t>
-  </si>
-  <si>
-    <t>X1801240955379030</t>
-  </si>
-  <si>
-    <t>X1801240955379025</t>
-  </si>
-  <si>
-    <t>X1801191557510242</t>
-  </si>
-  <si>
-    <t>X1801170846290030</t>
-  </si>
-  <si>
-    <t>X1801111704290133</t>
-  </si>
-  <si>
-    <t>X1802081822046647</t>
-  </si>
-  <si>
-    <t>X1802081822036642</t>
-  </si>
-  <si>
-    <t>X1801151927290197</t>
-  </si>
-  <si>
-    <t>X1802081820155296</t>
-  </si>
-  <si>
-    <t>X1801231711440009</t>
-  </si>
-  <si>
-    <t>X1802081823197561</t>
-  </si>
-  <si>
-    <t>X1801240954578659</t>
-  </si>
-  <si>
-    <t>X1801240954578654</t>
-  </si>
-  <si>
-    <t>X1801240954568649</t>
-  </si>
-  <si>
-    <t>X1801240954568644</t>
-  </si>
-  <si>
-    <t>X1801240954558639</t>
-  </si>
-  <si>
-    <t>X1801240954558634</t>
-  </si>
-  <si>
-    <t>X1801240954548629</t>
-  </si>
-  <si>
-    <t>X1802081822557270</t>
-  </si>
-  <si>
-    <t>X1802081822547265</t>
-  </si>
-  <si>
-    <t>X1801241000131426</t>
-  </si>
-  <si>
-    <t>X1801241000121421</t>
-  </si>
-  <si>
-    <t>X1801241000121416</t>
-  </si>
-  <si>
-    <t>X1801241000111411</t>
-  </si>
-  <si>
-    <t>X1801241000111406</t>
+    <t>X1803211048116766</t>
+  </si>
+  <si>
+    <t>X1803211047006426</t>
+  </si>
+  <si>
+    <t>X1803211045346190</t>
+  </si>
+  <si>
+    <t>X1803211040085376</t>
+  </si>
+  <si>
+    <t>X1803211038505183</t>
+  </si>
+  <si>
+    <t>X1803211037244771</t>
+  </si>
+  <si>
+    <t>X1803211036024526</t>
+  </si>
+  <si>
+    <t>X1803211033464303</t>
+  </si>
+  <si>
+    <t>X1803211026353973</t>
+  </si>
+  <si>
+    <t>X1803211025093955</t>
+  </si>
+  <si>
+    <t>X1803211024003941</t>
+  </si>
+  <si>
+    <t>X1803211022313922</t>
+  </si>
+  <si>
+    <t>X1803210946299760</t>
+  </si>
+  <si>
+    <t>X1803210938299723</t>
+  </si>
+  <si>
+    <t>X1803210929049709</t>
+  </si>
+  <si>
+    <t>X1803210927479697</t>
+  </si>
+  <si>
+    <t>X1803210925139656</t>
+  </si>
+  <si>
+    <t>X1801182157054820</t>
+  </si>
+  <si>
+    <t>X1801182155073954</t>
+  </si>
+  <si>
+    <t>X1801182154533859</t>
+  </si>
+  <si>
+    <t>X1801182154533854</t>
+  </si>
+  <si>
+    <t>X1801182154523849</t>
+  </si>
+  <si>
+    <t>X1801182154523844</t>
+  </si>
+  <si>
+    <t>X1801182154513839</t>
+  </si>
+  <si>
+    <t>X1801182154503834</t>
+  </si>
+  <si>
+    <t>X1801182154493829</t>
+  </si>
+  <si>
+    <t>X1801182154493824</t>
+  </si>
+  <si>
+    <t>X1801182154483819</t>
+  </si>
+  <si>
+    <t>X1801182154483814</t>
+  </si>
+  <si>
+    <t>X1801182154473809</t>
+  </si>
+  <si>
+    <t>X1801182154463804</t>
+  </si>
+  <si>
+    <t>X1801182154463799</t>
+  </si>
+  <si>
+    <t>X1801182154453794</t>
+  </si>
+  <si>
+    <t>X1801182154443789</t>
+  </si>
+  <si>
+    <t>X1801182154443784</t>
+  </si>
+  <si>
+    <t>X1801182154433779</t>
+  </si>
+  <si>
+    <t>X1801182154423774</t>
+  </si>
+  <si>
+    <t>X1801182154423769</t>
+  </si>
+  <si>
+    <t>X1801182154413764</t>
+  </si>
+  <si>
+    <t>X1801182154403759</t>
+  </si>
+  <si>
+    <t>X1801182154403754</t>
+  </si>
+  <si>
+    <t>X1801182154393749</t>
+  </si>
+  <si>
+    <t>X1801182154383744</t>
+  </si>
+  <si>
+    <t>X1801182154383739</t>
+  </si>
+  <si>
+    <t>X1801182154373734</t>
+  </si>
+  <si>
+    <t>X1801182154363729</t>
+  </si>
+  <si>
+    <t>X1801182154363724</t>
+  </si>
+  <si>
+    <t>X1801182154353719</t>
+  </si>
+  <si>
+    <t>X1801182154343714</t>
+  </si>
+  <si>
+    <t>X1801182154343709</t>
+  </si>
+  <si>
+    <t>X1801182154333704</t>
+  </si>
+  <si>
+    <t>X1801182154323699</t>
+  </si>
+  <si>
+    <t>X1801182154313694</t>
+  </si>
+  <si>
+    <t>X1801182154313689</t>
+  </si>
+  <si>
+    <t>X1801182154303684</t>
+  </si>
+  <si>
+    <t>X1801182154303679</t>
+  </si>
+  <si>
+    <t>X1801182154293674</t>
+  </si>
+  <si>
+    <t>X1801182154283669</t>
+  </si>
+  <si>
+    <t>X1801182154273664</t>
+  </si>
+  <si>
+    <t>X1801182154273659</t>
+  </si>
+  <si>
+    <t>X1801182154263654</t>
+  </si>
+  <si>
+    <t>X1801182154253649</t>
+  </si>
+  <si>
+    <t>X1801182154253644</t>
+  </si>
+  <si>
+    <t>X1801182154243639</t>
+  </si>
+  <si>
+    <t>X1801182154233629</t>
+  </si>
+  <si>
+    <t>X1801182154223624</t>
+  </si>
+  <si>
+    <t>X1801182154213619</t>
+  </si>
+  <si>
+    <t>X1801182154213614</t>
+  </si>
+  <si>
+    <t>X1801182154203609</t>
+  </si>
+  <si>
+    <t>X1801182154193604</t>
+  </si>
+  <si>
+    <t>X1801182154183594</t>
+  </si>
+  <si>
+    <t>X1801182154173589</t>
+  </si>
+  <si>
+    <t>X1801182154163584</t>
+  </si>
+  <si>
+    <t>X1801182154153574</t>
+  </si>
+  <si>
+    <t>X1801182154133564</t>
+  </si>
+  <si>
+    <t>X1801182154133559</t>
+  </si>
+  <si>
+    <t>X1801182154123554</t>
+  </si>
+  <si>
+    <t>X1801182154113549</t>
+  </si>
+  <si>
+    <t>X1801182154113544</t>
+  </si>
+  <si>
+    <t>X1801182154103539</t>
+  </si>
+  <si>
+    <t>X1801182154093534</t>
+  </si>
+  <si>
+    <t>X1801182154093529</t>
+  </si>
+  <si>
+    <t>X1801182154083524</t>
+  </si>
+  <si>
+    <t>X1801182154073519</t>
+  </si>
+  <si>
+    <t>X1801182154073514</t>
+  </si>
+  <si>
+    <t>X1801182154063509</t>
+  </si>
+  <si>
+    <t>X1801182154053504</t>
+  </si>
+  <si>
+    <t>X1801182154053499</t>
+  </si>
+  <si>
+    <t>X1801182154043494</t>
+  </si>
+  <si>
+    <t>X1801182154033489</t>
+  </si>
+  <si>
+    <t>X1801182154033484</t>
+  </si>
+  <si>
+    <t>X1801182154023479</t>
+  </si>
+  <si>
+    <t>X1801182154013474</t>
+  </si>
+  <si>
+    <t>X1801182154013469</t>
+  </si>
+  <si>
+    <t>X1801182154003464</t>
+  </si>
+  <si>
+    <t>X1801182154003459</t>
+  </si>
+  <si>
+    <t>X1801182153593454</t>
+  </si>
+  <si>
+    <t>X1801182153583449</t>
+  </si>
+  <si>
+    <t>X1801182153583444</t>
+  </si>
+  <si>
+    <t>X1801182153573439</t>
+  </si>
+  <si>
+    <t>X1801182153563434</t>
+  </si>
+  <si>
+    <t>X1801182153563429</t>
+  </si>
+  <si>
+    <t>X1801182153553424</t>
+  </si>
+  <si>
+    <t>X1801182153543419</t>
+  </si>
+  <si>
+    <t>X1801182153543414</t>
+  </si>
+  <si>
+    <t>X1801182153533409</t>
+  </si>
+  <si>
+    <t>X1801182153523404</t>
+  </si>
+  <si>
+    <t>X1801182153523399</t>
+  </si>
+  <si>
+    <t>X1801182153513394</t>
+  </si>
+  <si>
+    <t>X1801182153503389</t>
+  </si>
+  <si>
+    <t>X1801182153503384</t>
+  </si>
+  <si>
+    <t>X1801182153493379</t>
+  </si>
+  <si>
+    <t>X1801182153483374</t>
+  </si>
+  <si>
+    <t>X1801182153483369</t>
+  </si>
+  <si>
+    <t>X1801182153473364</t>
+  </si>
+  <si>
+    <t>X1801182153463359</t>
+  </si>
+  <si>
+    <t>X1801182153453354</t>
+  </si>
+  <si>
+    <t>X1801182153453349</t>
+  </si>
+  <si>
+    <t>X1801182153443344</t>
+  </si>
+  <si>
+    <t>X1801182153433339</t>
+  </si>
+  <si>
+    <t>X1801182153423334</t>
+  </si>
+  <si>
+    <t>X1801182153423329</t>
+  </si>
+  <si>
+    <t>X1801182153413324</t>
+  </si>
+  <si>
+    <t>X1801182153403319</t>
+  </si>
+  <si>
+    <t>X1801182153403314</t>
+  </si>
+  <si>
+    <t>X1801182153393309</t>
+  </si>
+  <si>
+    <t>X1801182153383304</t>
+  </si>
+  <si>
+    <t>X1801182153383299</t>
+  </si>
+  <si>
+    <t>X1801182153373294</t>
+  </si>
+  <si>
+    <t>X1801182153363289</t>
+  </si>
+  <si>
+    <t>X1801182153363284</t>
+  </si>
+  <si>
+    <t>X1801182153353279</t>
+  </si>
+  <si>
+    <t>X1801182153343274</t>
+  </si>
+  <si>
+    <t>X1801182153343269</t>
+  </si>
+  <si>
+    <t>X1801182153333264</t>
+  </si>
+  <si>
+    <t>X1801182153333259</t>
+  </si>
+  <si>
+    <t>X1801182153323254</t>
+  </si>
+  <si>
+    <t>X1801182153313249</t>
+  </si>
+  <si>
+    <t>X1801182153313244</t>
+  </si>
+  <si>
+    <t>X1801182153303239</t>
+  </si>
+  <si>
+    <t>X1801182153293234</t>
+  </si>
+  <si>
+    <t>X1801182153293229</t>
+  </si>
+  <si>
+    <t>X1801182153283224</t>
+  </si>
+  <si>
+    <t>X1801182153273219</t>
+  </si>
+  <si>
+    <t>X1801182153273214</t>
+  </si>
+  <si>
+    <t>X1801182153263209</t>
+  </si>
+  <si>
+    <t>X1801182153253204</t>
+  </si>
+  <si>
+    <t>X1801182153253199</t>
+  </si>
+  <si>
+    <t>X1801182153243194</t>
+  </si>
+  <si>
+    <t>X1801182153233189</t>
+  </si>
+  <si>
+    <t>X1801182153233184</t>
+  </si>
+  <si>
+    <t>X1801182153223179</t>
+  </si>
+  <si>
+    <t>X1801182153223174</t>
+  </si>
+  <si>
+    <t>X1801182153213169</t>
+  </si>
+  <si>
+    <t>X1801182153203164</t>
+  </si>
+  <si>
+    <t>X1801182153203159</t>
+  </si>
+  <si>
+    <t>X1801182153193154</t>
+  </si>
+  <si>
+    <t>X1801182153183149</t>
+  </si>
+  <si>
+    <t>X1801182153183144</t>
+  </si>
+  <si>
+    <t>X1801182153173139</t>
+  </si>
+  <si>
+    <t>X1801182153163134</t>
+  </si>
+  <si>
+    <t>X1801182153163129</t>
+  </si>
+  <si>
+    <t>X1801182153153124</t>
+  </si>
+  <si>
+    <t>X1801182153143119</t>
+  </si>
+  <si>
+    <t>X1801182153143114</t>
+  </si>
+  <si>
+    <t>X1801182153133109</t>
+  </si>
+  <si>
+    <t>X1801182153123104</t>
+  </si>
+  <si>
+    <t>X1801182153123099</t>
+  </si>
+  <si>
+    <t>X1801182153113094</t>
+  </si>
+  <si>
+    <t>X1801182153113089</t>
+  </si>
+  <si>
+    <t>X1801182153103084</t>
+  </si>
+  <si>
+    <t>X1801182153093079</t>
+  </si>
+  <si>
+    <t>X1801182153093074</t>
+  </si>
+  <si>
+    <t>X1801182153083069</t>
+  </si>
+  <si>
+    <t>X1801182153073064</t>
+  </si>
+  <si>
+    <t>X1801182153073059</t>
+  </si>
+  <si>
+    <t>X1801182153063054</t>
+  </si>
+  <si>
+    <t>X1801182153053049</t>
+  </si>
+  <si>
+    <t>X1801182153053044</t>
+  </si>
+  <si>
+    <t>X1801182153043039</t>
+  </si>
+  <si>
+    <t>X1801182153033034</t>
+  </si>
+  <si>
+    <t>X1801182153033029</t>
+  </si>
+  <si>
+    <t>X1801182153023024</t>
+  </si>
+  <si>
+    <t>X1801182153013019</t>
+  </si>
+  <si>
+    <t>X1801182153013014</t>
+  </si>
+  <si>
+    <t>X1801182153003009</t>
+  </si>
+  <si>
+    <t>X1801182152593004</t>
+  </si>
+  <si>
+    <t>X1801182152582999</t>
+  </si>
+  <si>
+    <t>X1801182152572994</t>
+  </si>
+  <si>
+    <t>X1801182152572989</t>
+  </si>
+  <si>
+    <t>X1801182152562984</t>
+  </si>
+  <si>
+    <t>X1801182152552979</t>
+  </si>
+  <si>
+    <t>X1801182152552974</t>
+  </si>
+  <si>
+    <t>X1801182152542969</t>
+  </si>
+  <si>
+    <t>X1801182152542964</t>
+  </si>
+  <si>
+    <t>X1801182152532959</t>
+  </si>
+  <si>
+    <t>X1801182152522954</t>
+  </si>
+  <si>
+    <t>X1801182152522949</t>
+  </si>
+  <si>
+    <t>X1801182152512944</t>
+  </si>
+  <si>
+    <t>X1801182152502939</t>
+  </si>
+  <si>
+    <t>X1801182152502934</t>
+  </si>
+  <si>
+    <t>X1801182152492929</t>
+  </si>
+  <si>
+    <t>X1801182152482924</t>
+  </si>
+  <si>
+    <t>X1801182152482919</t>
+  </si>
+  <si>
+    <t>X1801182152472914</t>
+  </si>
+  <si>
+    <t>X1801182152462909</t>
+  </si>
+  <si>
+    <t>X1801182152462904</t>
+  </si>
+  <si>
+    <t>X1801182152452899</t>
+  </si>
+  <si>
+    <t>X1801182152452894</t>
+  </si>
+  <si>
+    <t>X1801182152442889</t>
+  </si>
+  <si>
+    <t>X1801182152432884</t>
+  </si>
+  <si>
+    <t>X1801182152432879</t>
+  </si>
+  <si>
+    <t>X1801182152422874</t>
+  </si>
+  <si>
+    <t>X1801182152412869</t>
+  </si>
+  <si>
+    <t>X1801182152412864</t>
+  </si>
+  <si>
+    <t>X1801182152402859</t>
+  </si>
+  <si>
+    <t>X1801182152402854</t>
+  </si>
+  <si>
+    <t>X1801182152392849</t>
+  </si>
+  <si>
+    <t>X1801182152382844</t>
+  </si>
+  <si>
+    <t>X1801182152382839</t>
+  </si>
+  <si>
+    <t>X1801182152372834</t>
+  </si>
+  <si>
+    <t>X1801182152372829</t>
+  </si>
+  <si>
+    <t>X1801182152362824</t>
+  </si>
+  <si>
+    <t>X1801182152352819</t>
+  </si>
+  <si>
+    <t>X1801182152352814</t>
+  </si>
+  <si>
+    <t>X1801182152342809</t>
+  </si>
+  <si>
+    <t>X1801182152332804</t>
+  </si>
+  <si>
+    <t>X1801182152332799</t>
+  </si>
+  <si>
+    <t>X1801182152322794</t>
+  </si>
+  <si>
+    <t>X1801182152322789</t>
+  </si>
+  <si>
+    <t>X1801182152312784</t>
+  </si>
+  <si>
+    <t>X1801182152302779</t>
+  </si>
+  <si>
+    <t>X1801182152302774</t>
+  </si>
+  <si>
+    <t>X1801182152292769</t>
+  </si>
+  <si>
+    <t>X1801182152282764</t>
+  </si>
+  <si>
+    <t>X1801182152282759</t>
+  </si>
+  <si>
+    <t>X1801182152272754</t>
+  </si>
+  <si>
+    <t>X1801182152272749</t>
+  </si>
+  <si>
+    <t>X1801182152262744</t>
+  </si>
+  <si>
+    <t>X1801182152252739</t>
+  </si>
+  <si>
+    <t>X1801182152252734</t>
+  </si>
+  <si>
+    <t>X1801182152242729</t>
+  </si>
+  <si>
+    <t>X1801182152232724</t>
+  </si>
+  <si>
+    <t>X1801182152232719</t>
+  </si>
+  <si>
+    <t>X1801182152222714</t>
+  </si>
+  <si>
+    <t>X1801182152212709</t>
+  </si>
+  <si>
+    <t>X1801182152212704</t>
+  </si>
+  <si>
+    <t>X1801182152202699</t>
+  </si>
+  <si>
+    <t>X1801182152192694</t>
+  </si>
+  <si>
+    <t>X1801182152192689</t>
+  </si>
+  <si>
+    <t>X1801182152182684</t>
+  </si>
+  <si>
+    <t>X1801182152172679</t>
+  </si>
+  <si>
+    <t>X1801182152172674</t>
+  </si>
+  <si>
+    <t>X1801182152162669</t>
+  </si>
+  <si>
+    <t>X1801182152152664</t>
+  </si>
+  <si>
+    <t>X1801182152152659</t>
+  </si>
+  <si>
+    <t>X1801182152142654</t>
+  </si>
+  <si>
+    <t>X1801182152132649</t>
+  </si>
+  <si>
+    <t>X1801182152132644</t>
+  </si>
+  <si>
+    <t>X1801182152122639</t>
+  </si>
+  <si>
+    <t>X1801182152112634</t>
+  </si>
+  <si>
+    <t>X1801182152102629</t>
+  </si>
+  <si>
+    <t>X1801182152092624</t>
+  </si>
+  <si>
+    <t>X1801182152092619</t>
+  </si>
+  <si>
+    <t>X1801182152082614</t>
+  </si>
+  <si>
+    <t>X1801182152072609</t>
+  </si>
+  <si>
+    <t>X1801182152072604</t>
+  </si>
+  <si>
+    <t>X1801182152062599</t>
+  </si>
+  <si>
+    <t>X1801182152052594</t>
+  </si>
+  <si>
+    <t>X1801182152052589</t>
+  </si>
+  <si>
+    <t>X1801182152042584</t>
+  </si>
+  <si>
+    <t>X1801182152042579</t>
+  </si>
+  <si>
+    <t>X1801182152032574</t>
+  </si>
+  <si>
+    <t>X1801182152022569</t>
+  </si>
+  <si>
+    <t>X1801182152022564</t>
+  </si>
+  <si>
+    <t>X1801182152012559</t>
+  </si>
+  <si>
+    <t>X1801182152002554</t>
+  </si>
+  <si>
+    <t>X1801182152002549</t>
+  </si>
+  <si>
+    <t>X1801182151592544</t>
+  </si>
+  <si>
+    <t>X1801182151582539</t>
+  </si>
+  <si>
+    <t>X1801182151572534</t>
+  </si>
+  <si>
+    <t>X1801182151562529</t>
+  </si>
+  <si>
+    <t>X1801182151552524</t>
+  </si>
+  <si>
+    <t>X1801182151542519</t>
+  </si>
+  <si>
+    <t>X1801182151542514</t>
+  </si>
+  <si>
+    <t>X1801182151532509</t>
+  </si>
+  <si>
+    <t>X1801182151522504</t>
+  </si>
+  <si>
+    <t>X1801182151522499</t>
+  </si>
+  <si>
+    <t>X1801182151512494</t>
+  </si>
+  <si>
+    <t>X1801182151512489</t>
+  </si>
+  <si>
+    <t>X1801182151502484</t>
+  </si>
+  <si>
+    <t>X1801182151492479</t>
+  </si>
+  <si>
+    <t>X1801182151492474</t>
+  </si>
+  <si>
+    <t>X1801182151482469</t>
+  </si>
+  <si>
+    <t>X1801182151482464</t>
+  </si>
+  <si>
+    <t>X1801182151472459</t>
+  </si>
+  <si>
+    <t>X1801182151462454</t>
+  </si>
+  <si>
+    <t>X1801182151462449</t>
+  </si>
+  <si>
+    <t>X1801182151452444</t>
+  </si>
+  <si>
+    <t>X1801182151442439</t>
+  </si>
+  <si>
+    <t>X1801182151442434</t>
+  </si>
+  <si>
+    <t>X1801182151432429</t>
+  </si>
+  <si>
+    <t>X1801182151422424</t>
+  </si>
+  <si>
+    <t>X1801182151422419</t>
+  </si>
+  <si>
+    <t>X1801182151412414</t>
+  </si>
+  <si>
+    <t>X1801182151412409</t>
+  </si>
+  <si>
+    <t>X1801182151402404</t>
+  </si>
+  <si>
+    <t>X1801182151392399</t>
+  </si>
+  <si>
+    <t>X1801182151392394</t>
+  </si>
+  <si>
+    <t>X1801182151382389</t>
+  </si>
+  <si>
+    <t>X1801182151382384</t>
+  </si>
+  <si>
+    <t>X1801182151372379</t>
+  </si>
+  <si>
+    <t>X1801182151362374</t>
+  </si>
+  <si>
+    <t>X1801182151362369</t>
+  </si>
+  <si>
+    <t>X1801182151352364</t>
+  </si>
+  <si>
+    <t>X1801182151352359</t>
+  </si>
+  <si>
+    <t>X1801182151342354</t>
+  </si>
+  <si>
+    <t>X1801182151332349</t>
+  </si>
+  <si>
+    <t>X1801182151322344</t>
+  </si>
+  <si>
+    <t>X1801182151322339</t>
+  </si>
+  <si>
+    <t>X1801182151312334</t>
+  </si>
+  <si>
+    <t>X1801182151302329</t>
+  </si>
+  <si>
+    <t>X1801182151302324</t>
+  </si>
+  <si>
+    <t>X1801182151292319</t>
+  </si>
+  <si>
+    <t>X1801182151282314</t>
+  </si>
+  <si>
+    <t>X1801182151282309</t>
+  </si>
+  <si>
+    <t>X1801182151272304</t>
+  </si>
+  <si>
+    <t>X1801182151262299</t>
+  </si>
+  <si>
+    <t>X1801182151262294</t>
+  </si>
+  <si>
+    <t>X1801182151242284</t>
+  </si>
+  <si>
+    <t>X1801182151232274</t>
+  </si>
+  <si>
+    <t>X1801182151212259</t>
+  </si>
+  <si>
+    <t>X1801182151202254</t>
+  </si>
+  <si>
+    <t>X1801182151202249</t>
+  </si>
+  <si>
+    <t>X1801182151192244</t>
+  </si>
+  <si>
+    <t>X1801182151192239</t>
+  </si>
+  <si>
+    <t>X1801182151182234</t>
+  </si>
+  <si>
+    <t>X1801182151172229</t>
+  </si>
+  <si>
+    <t>X1801182151172224</t>
+  </si>
+  <si>
+    <t>X1801182151152209</t>
+  </si>
+  <si>
+    <t>X1801182151142204</t>
+  </si>
+  <si>
+    <t>X1801182151142199</t>
+  </si>
+  <si>
+    <t>X1801182151122184</t>
+  </si>
+  <si>
+    <t>X1801182151112174</t>
+  </si>
+  <si>
+    <t>X1801182151102169</t>
+  </si>
+  <si>
+    <t>X1801182151102164</t>
+  </si>
+  <si>
+    <t>X1801182151092159</t>
+  </si>
+  <si>
+    <t>X1801182151082154</t>
+  </si>
+  <si>
+    <t>X1801182151082149</t>
+  </si>
+  <si>
+    <t>X1801182151072144</t>
+  </si>
+  <si>
+    <t>X1801182151072139</t>
+  </si>
+  <si>
+    <t>X1801182151062134</t>
+  </si>
+  <si>
+    <t>X1801182151052124</t>
+  </si>
+  <si>
+    <t>X1801182151042119</t>
+  </si>
+  <si>
+    <t>X1801182151042114</t>
+  </si>
+  <si>
+    <t>X1801182151022104</t>
+  </si>
+  <si>
+    <t>X1801182151022099</t>
+  </si>
+  <si>
+    <t>X1801182151012094</t>
+  </si>
+  <si>
+    <t>X1801182151012089</t>
+  </si>
+  <si>
+    <t>X1801182150592079</t>
+  </si>
+  <si>
+    <t>X1801182150592074</t>
+  </si>
+  <si>
+    <t>X1801182150582069</t>
+  </si>
+  <si>
+    <t>X1801182150582064</t>
+  </si>
+  <si>
+    <t>X1801182150572059</t>
+  </si>
+  <si>
+    <t>X1801182150562054</t>
+  </si>
+  <si>
+    <t>X1801182150562049</t>
+  </si>
+  <si>
+    <t>X1801182150552044</t>
+  </si>
+  <si>
+    <t>X1801182150552039</t>
+  </si>
+  <si>
+    <t>X1801182150542034</t>
+  </si>
+  <si>
+    <t>X1801182150532029</t>
+  </si>
+  <si>
+    <t>X1801182150532024</t>
+  </si>
+  <si>
+    <t>X1801182150522019</t>
+  </si>
+  <si>
+    <t>X1801182150522014</t>
+  </si>
+  <si>
+    <t>X1801182150512009</t>
+  </si>
+  <si>
+    <t>X1801182150502004</t>
+  </si>
+  <si>
+    <t>X1801182150501999</t>
+  </si>
+  <si>
+    <t>X1801182150491994</t>
+  </si>
+  <si>
+    <t>X1801182150491989</t>
+  </si>
+  <si>
+    <t>X1801182150481984</t>
+  </si>
+  <si>
+    <t>X1801182150481979</t>
+  </si>
+  <si>
+    <t>X1801182150471974</t>
+  </si>
+  <si>
+    <t>X1801182150461969</t>
+  </si>
+  <si>
+    <t>X1801182150461964</t>
+  </si>
+  <si>
+    <t>X1801182150451959</t>
+  </si>
+  <si>
+    <t>X1801182150451954</t>
+  </si>
+  <si>
+    <t>X1801182150441949</t>
+  </si>
+  <si>
+    <t>X1801182150431944</t>
+  </si>
+  <si>
+    <t>X1801182150431939</t>
+  </si>
+  <si>
+    <t>X1801182150421929</t>
+  </si>
+  <si>
+    <t>X1801182150411924</t>
+  </si>
+  <si>
+    <t>X1801182150411919</t>
+  </si>
+  <si>
+    <t>X1801182150401914</t>
+  </si>
+  <si>
+    <t>X1801182150391909</t>
+  </si>
+  <si>
+    <t>X1801182150391904</t>
+  </si>
+  <si>
+    <t>X1801182150381899</t>
+  </si>
+  <si>
+    <t>X1801182150371894</t>
+  </si>
+  <si>
+    <t>X1801182150371889</t>
+  </si>
+  <si>
+    <t>X1801182150361884</t>
+  </si>
+  <si>
+    <t>X1801182150361879</t>
+  </si>
+  <si>
+    <t>X1801182150351874</t>
+  </si>
+  <si>
+    <t>X1801182150351869</t>
+  </si>
+  <si>
+    <t>X1801182150341864</t>
+  </si>
+  <si>
+    <t>X1801182150331859</t>
+  </si>
+  <si>
+    <t>X1801182150331854</t>
+  </si>
+  <si>
+    <t>X1801182150321849</t>
+  </si>
+  <si>
+    <t>X1801182150321844</t>
+  </si>
+  <si>
+    <t>X1801182150311839</t>
+  </si>
+  <si>
+    <t>X1801182150311834</t>
+  </si>
+  <si>
+    <t>X1801182150301829</t>
+  </si>
+  <si>
+    <t>X1801182150291824</t>
+  </si>
+  <si>
+    <t>X1801182150291819</t>
+  </si>
+  <si>
+    <t>X1801182150281814</t>
+  </si>
+  <si>
+    <t>X1801182150251789</t>
+  </si>
+  <si>
+    <t>X1801182150221764</t>
+  </si>
+  <si>
+    <t>X1801182150221759</t>
+  </si>
+  <si>
+    <t>X1801182150201744</t>
+  </si>
+  <si>
+    <t>X1801182150161709</t>
+  </si>
+  <si>
+    <t>X1801182150151704</t>
+  </si>
+  <si>
+    <t>X1801182150151699</t>
+  </si>
+  <si>
+    <t>X1801182150121674</t>
+  </si>
+  <si>
+    <t>X1801182149571549</t>
+  </si>
+  <si>
+    <t>X1801182149571544</t>
+  </si>
+  <si>
+    <t>X1801182149561539</t>
+  </si>
+  <si>
+    <t>X1801182149551534</t>
+  </si>
+  <si>
+    <t>X1801182149551529</t>
+  </si>
+  <si>
+    <t>X1801182149541524</t>
+  </si>
+  <si>
+    <t>X1801182149541519</t>
+  </si>
+  <si>
+    <t>X1801182149531514</t>
+  </si>
+  <si>
+    <t>X1801182149521509</t>
+  </si>
+  <si>
+    <t>X1801182149521504</t>
+  </si>
+  <si>
+    <t>X1801182149511499</t>
+  </si>
+  <si>
+    <t>X1801182149511494</t>
+  </si>
+  <si>
+    <t>X1801182149501489</t>
+  </si>
+  <si>
+    <t>X1801182149501484</t>
+  </si>
+  <si>
+    <t>X1801182149491479</t>
+  </si>
+  <si>
+    <t>X1801182149481474</t>
+  </si>
+  <si>
+    <t>X1801182149481469</t>
+  </si>
+  <si>
+    <t>X1801182149471464</t>
+  </si>
+  <si>
+    <t>X1801182149471459</t>
+  </si>
+  <si>
+    <t>X1801182149461454</t>
+  </si>
+  <si>
+    <t>X1801182149461449</t>
+  </si>
+  <si>
+    <t>X1801182149451444</t>
+  </si>
+  <si>
+    <t>X1801182149441439</t>
+  </si>
+  <si>
+    <t>X1801182149441434</t>
+  </si>
+  <si>
+    <t>X1801182149431429</t>
+  </si>
+  <si>
+    <t>X1801182149431424</t>
+  </si>
+  <si>
+    <t>X1801182149421414</t>
+  </si>
+  <si>
+    <t>X1801182149411409</t>
+  </si>
+  <si>
+    <t>X1801182149401404</t>
+  </si>
+  <si>
+    <t>X1801182149391394</t>
+  </si>
+  <si>
+    <t>X1801182149391389</t>
+  </si>
+  <si>
+    <t>X1801182149381384</t>
+  </si>
+  <si>
+    <t>X1801182149371374</t>
+  </si>
+  <si>
+    <t>X1801182149371369</t>
+  </si>
+  <si>
+    <t>X1801182149361364</t>
+  </si>
+  <si>
+    <t>X1801182149351359</t>
+  </si>
+  <si>
+    <t>X1801182149351354</t>
+  </si>
+  <si>
+    <t>X1801182149341349</t>
+  </si>
+  <si>
+    <t>X1801182149341344</t>
+  </si>
+  <si>
+    <t>X1801182149331339</t>
+  </si>
+  <si>
+    <t>X1801182149321334</t>
+  </si>
+  <si>
+    <t>X1801182149321329</t>
+  </si>
+  <si>
+    <t>X1801182149311324</t>
+  </si>
+  <si>
+    <t>X1801182149311319</t>
+  </si>
+  <si>
+    <t>X1801182149301314</t>
+  </si>
+  <si>
+    <t>X1801182149301309</t>
+  </si>
+  <si>
+    <t>X1801182149291304</t>
+  </si>
+  <si>
+    <t>X1801182149291299</t>
+  </si>
+  <si>
+    <t>X1801182149281294</t>
+  </si>
+  <si>
+    <t>X1801182149271289</t>
+  </si>
+  <si>
+    <t>X1801182149271284</t>
+  </si>
+  <si>
+    <t>X1801182149261279</t>
+  </si>
+  <si>
+    <t>X1801182149251274</t>
+  </si>
+  <si>
+    <t>X1801182149251269</t>
+  </si>
+  <si>
+    <t>X1801182149241264</t>
+  </si>
+  <si>
+    <t>X1801182149241259</t>
+  </si>
+  <si>
+    <t>X1801182149231254</t>
+  </si>
+  <si>
+    <t>X1801182149221249</t>
+  </si>
+  <si>
+    <t>X1801182149221244</t>
+  </si>
+  <si>
+    <t>X1801182149211239</t>
+  </si>
+  <si>
+    <t>X1801182149211234</t>
+  </si>
+  <si>
+    <t>X1801182149201229</t>
+  </si>
+  <si>
+    <t>X1801182149191224</t>
+  </si>
+  <si>
+    <t>X1801182149191219</t>
+  </si>
+  <si>
+    <t>X1801182149181214</t>
+  </si>
+  <si>
+    <t>X1801182149171209</t>
+  </si>
+  <si>
+    <t>X1801182149171204</t>
+  </si>
+  <si>
+    <t>X1801182149161199</t>
+  </si>
+  <si>
+    <t>X1801182149151194</t>
+  </si>
+  <si>
+    <t>X1801182149151189</t>
+  </si>
+  <si>
+    <t>X1801182149141184</t>
+  </si>
+  <si>
+    <t>X1801182149141179</t>
+  </si>
+  <si>
+    <t>X1801182149131174</t>
+  </si>
+  <si>
+    <t>X1801182149131169</t>
+  </si>
+  <si>
+    <t>X1801182149121164</t>
+  </si>
+  <si>
+    <t>X1801182149121159</t>
+  </si>
+  <si>
+    <t>X1801182149111154</t>
+  </si>
+  <si>
+    <t>X1801182149101149</t>
+  </si>
+  <si>
+    <t>X1801182149101144</t>
+  </si>
+  <si>
+    <t>X1801182149091139</t>
+  </si>
+  <si>
+    <t>X1801182149091134</t>
+  </si>
+  <si>
+    <t>X1801182149081129</t>
+  </si>
+  <si>
+    <t>X1801182149071124</t>
+  </si>
+  <si>
+    <t>X1801182149071119</t>
+  </si>
+  <si>
+    <t>X1801182149061114</t>
+  </si>
+  <si>
+    <t>X1801182149061109</t>
+  </si>
+  <si>
+    <t>X1801182149051104</t>
+  </si>
+  <si>
+    <t>X1801182149041099</t>
+  </si>
+  <si>
+    <t>X1801182149041094</t>
+  </si>
+  <si>
+    <t>X1801182149031084</t>
+  </si>
+  <si>
+    <t>X1801182149021079</t>
+  </si>
+  <si>
+    <t>X1801182149021074</t>
+  </si>
+  <si>
+    <t>X1801182149011069</t>
+  </si>
+  <si>
+    <t>X1801182149011064</t>
+  </si>
+  <si>
+    <t>X1801182148591054</t>
+  </si>
+  <si>
+    <t>X1801182148581044</t>
+  </si>
+  <si>
+    <t>X1801182148571034</t>
+  </si>
+  <si>
+    <t>X1801182148330824</t>
+  </si>
+  <si>
+    <t>X1801182148320819</t>
+  </si>
+  <si>
+    <t>X1801182148320814</t>
+  </si>
+  <si>
+    <t>X1801182148310809</t>
+  </si>
+  <si>
+    <t>X1801182148310804</t>
+  </si>
+  <si>
+    <t>X1801182148300799</t>
+  </si>
+  <si>
+    <t>X1801182148290794</t>
+  </si>
+  <si>
+    <t>X1801182148290789</t>
+  </si>
+  <si>
+    <t>X1801182148280784</t>
+  </si>
+  <si>
+    <t>X1801182148210719</t>
+  </si>
+  <si>
+    <t>X1801182148200714</t>
+  </si>
+  <si>
+    <t>X1801182148200709</t>
+  </si>
+  <si>
+    <t>X1801182148190704</t>
+  </si>
+  <si>
+    <t>X1801182148180699</t>
+  </si>
+  <si>
+    <t>X1801182148180694</t>
+  </si>
+  <si>
+    <t>X1801182148170689</t>
+  </si>
+  <si>
+    <t>X1801182148170684</t>
+  </si>
+  <si>
+    <t>X1801182148160679</t>
+  </si>
+  <si>
+    <t>X1801182148160674</t>
+  </si>
+  <si>
+    <t>X1801182148150669</t>
+  </si>
+  <si>
+    <t>X1801182148140664</t>
+  </si>
+  <si>
+    <t>X1801182148140659</t>
+  </si>
+  <si>
+    <t>X1801182148130654</t>
+  </si>
+  <si>
+    <t>X1801182148130649</t>
+  </si>
+  <si>
+    <t>X1801182148120644</t>
+  </si>
+  <si>
+    <t>X1801182147560502</t>
+  </si>
+  <si>
+    <t>X1801182147360322</t>
+  </si>
+  <si>
+    <t>X1801182147300277</t>
+  </si>
+  <si>
+    <t>X1801182147240222</t>
+  </si>
+  <si>
+    <t>X1801182147230217</t>
+  </si>
+  <si>
+    <t>X1801182147220207</t>
+  </si>
+  <si>
+    <t>X1801182147210202</t>
+  </si>
+  <si>
+    <t>X1801182147210197</t>
+  </si>
+  <si>
+    <t>X1801182146039505</t>
+  </si>
+  <si>
+    <t>X1801182145589460</t>
+  </si>
+  <si>
+    <t>X1801182145589455</t>
+  </si>
+  <si>
+    <t>X1801092205235692</t>
+  </si>
+  <si>
+    <t>X1801092205235687</t>
+  </si>
+  <si>
+    <t>X1801092205235682</t>
+  </si>
+  <si>
+    <t>X1801092205235677</t>
+  </si>
+  <si>
+    <t>X1801092205225672</t>
+  </si>
+  <si>
+    <t>X1801092205225667</t>
+  </si>
+  <si>
+    <t>X1801092205225661</t>
+  </si>
+  <si>
+    <t>X1801092205225656</t>
+  </si>
+  <si>
+    <t>X1801092205215651</t>
+  </si>
+  <si>
+    <t>X1801092205215646</t>
+  </si>
+  <si>
+    <t>X1801092205205641</t>
+  </si>
+  <si>
+    <t>X1801092205205636</t>
+  </si>
+  <si>
+    <t>X1801092205195631</t>
+  </si>
+  <si>
+    <t>X1801092205195626</t>
+  </si>
+  <si>
+    <t>X1801092205185621</t>
+  </si>
+  <si>
+    <t>X1801092205185616</t>
+  </si>
+  <si>
+    <t>X1801092205185611</t>
+  </si>
+  <si>
+    <t>X1801092205185606</t>
+  </si>
+  <si>
+    <t>X1801092205175601</t>
+  </si>
+  <si>
+    <t>X1801092205175596</t>
+  </si>
+  <si>
+    <t>X1801092205175591</t>
+  </si>
+  <si>
+    <t>X1801092205175586</t>
+  </si>
+  <si>
+    <t>X1801092205175581</t>
+  </si>
+  <si>
+    <t>X1801092205165576</t>
+  </si>
+  <si>
+    <t>X1801092205165571</t>
+  </si>
+  <si>
+    <t>X1801092205165566</t>
+  </si>
+  <si>
+    <t>X1801092205165561</t>
+  </si>
+  <si>
+    <t>X1801092205155556</t>
+  </si>
+  <si>
+    <t>X1801092205155551</t>
+  </si>
+  <si>
+    <t>X1801092205155546</t>
+  </si>
+  <si>
+    <t>X1801092205155541</t>
+  </si>
+  <si>
+    <t>X1801092205145536</t>
+  </si>
+  <si>
+    <t>X1801092205145531</t>
+  </si>
+  <si>
+    <t>X1801092205145526</t>
+  </si>
+  <si>
+    <t>X1801092205135521</t>
+  </si>
+  <si>
+    <t>X1801092205135516</t>
+  </si>
+  <si>
+    <t>X1801092205135511</t>
+  </si>
+  <si>
+    <t>X1801092205135506</t>
+  </si>
+  <si>
+    <t>X1801092205135501</t>
+  </si>
+  <si>
+    <t>X1801092205125496</t>
+  </si>
+  <si>
+    <t>X1801092205125491</t>
+  </si>
+  <si>
+    <t>X1801092205125486</t>
+  </si>
+  <si>
+    <t>X1801092202462270</t>
+  </si>
+  <si>
+    <t>X1801092202462265</t>
+  </si>
+  <si>
+    <t>X1801092202462260</t>
+  </si>
+  <si>
+    <t>X1801092202462255</t>
+  </si>
+  <si>
+    <t>X1801092202452250</t>
+  </si>
+  <si>
+    <t>X1801092202452245</t>
+  </si>
+  <si>
+    <t>X1801092202452240</t>
+  </si>
+  <si>
+    <t>X1801092202452235</t>
+  </si>
+  <si>
+    <t>X1801092202442230</t>
+  </si>
+  <si>
+    <t>X1801092202442225</t>
+  </si>
+  <si>
+    <t>X1801092202442220</t>
+  </si>
+  <si>
+    <t>X1801092202442215</t>
+  </si>
+  <si>
+    <t>X1801092202432210</t>
+  </si>
+  <si>
+    <t>X1801092202432205</t>
+  </si>
+  <si>
+    <t>X1801092202432200</t>
+  </si>
+  <si>
+    <t>X1801092202432195</t>
+  </si>
+  <si>
+    <t>X1801092202422190</t>
+  </si>
+  <si>
+    <t>X1801092202422185</t>
+  </si>
+  <si>
+    <t>X1801092202422180</t>
+  </si>
+  <si>
+    <t>X1801092202422175</t>
+  </si>
+  <si>
+    <t>X1801092202412170</t>
+  </si>
+  <si>
+    <t>X1801092202412165</t>
+  </si>
+  <si>
+    <t>X1801092202412160</t>
+  </si>
+  <si>
+    <t>X1801092202412155</t>
+  </si>
+  <si>
+    <t>X1801092202412150</t>
+  </si>
+  <si>
+    <t>X1801092202402145</t>
+  </si>
+  <si>
+    <t>X1801092202402140</t>
+  </si>
+  <si>
+    <t>X1801092202402135</t>
+  </si>
+  <si>
+    <t>X1801092202402130</t>
+  </si>
+  <si>
+    <t>X1801092202392125</t>
+  </si>
+  <si>
+    <t>X1801092202392120</t>
+  </si>
+  <si>
+    <t>X1801092202392115</t>
+  </si>
+  <si>
+    <t>X1801092202392110</t>
+  </si>
+  <si>
+    <t>X1801092202392105</t>
+  </si>
+  <si>
+    <t>X1801092202382100</t>
+  </si>
+  <si>
+    <t>X1801092202382095</t>
+  </si>
+  <si>
+    <t>X1801092202382090</t>
+  </si>
+  <si>
+    <t>X1801092202382085</t>
+  </si>
+  <si>
+    <t>X1801092202372080</t>
+  </si>
+  <si>
+    <t>X1801092202372075</t>
+  </si>
+  <si>
+    <t>X1801092202372070</t>
+  </si>
+  <si>
+    <t>X1801092202372065</t>
+  </si>
+  <si>
+    <t>X1801092202372060</t>
+  </si>
+  <si>
+    <t>X1801092202362055</t>
+  </si>
+  <si>
+    <t>X1801092202362050</t>
+  </si>
+  <si>
+    <t>X1801092202362045</t>
+  </si>
+  <si>
+    <t>X1801092202362040</t>
+  </si>
+  <si>
+    <t>X1801092202352035</t>
+  </si>
+  <si>
+    <t>X1801092202352030</t>
+  </si>
+  <si>
+    <t>X1801092202352025</t>
+  </si>
+  <si>
+    <t>X1801092202352020</t>
+  </si>
+  <si>
+    <t>X1801092202352015</t>
+  </si>
+  <si>
+    <t>X1801092202342010</t>
+  </si>
+  <si>
+    <t>X1801092202342005</t>
+  </si>
+  <si>
+    <t>X1801092202342000</t>
+  </si>
+  <si>
+    <t>X1801092202341995</t>
+  </si>
+  <si>
+    <t>X1801092202331990</t>
+  </si>
+  <si>
+    <t>X1801092202331985</t>
+  </si>
+  <si>
+    <t>X1801092202331980</t>
+  </si>
+  <si>
+    <t>X1801092202331975</t>
+  </si>
+  <si>
+    <t>X1801092202331970</t>
+  </si>
+  <si>
+    <t>X1801092202321965</t>
+  </si>
+  <si>
+    <t>X1801092202321960</t>
+  </si>
+  <si>
+    <t>X1801092202321955</t>
+  </si>
+  <si>
+    <t>X1801092202321950</t>
+  </si>
+  <si>
+    <t>X1801092202311945</t>
+  </si>
+  <si>
+    <t>X1801092202311940</t>
+  </si>
+  <si>
+    <t>X1801092202311935</t>
+  </si>
+  <si>
+    <t>X1801092202311930</t>
+  </si>
+  <si>
+    <t>X1801092202311925</t>
+  </si>
+  <si>
+    <t>X1801092202301920</t>
+  </si>
+  <si>
+    <t>X1801092202301915</t>
+  </si>
+  <si>
+    <t>X1801092202301910</t>
+  </si>
+  <si>
+    <t>X1801092202301905</t>
+  </si>
+  <si>
+    <t>X1801092202301900</t>
+  </si>
+  <si>
+    <t>X1801092202291895</t>
+  </si>
+  <si>
+    <t>X1801092202291890</t>
+  </si>
+  <si>
+    <t>X1801092202291885</t>
+  </si>
+  <si>
+    <t>X1801092202291880</t>
+  </si>
+  <si>
+    <t>X1801092202281875</t>
+  </si>
+  <si>
+    <t>X1801092202281870</t>
+  </si>
+  <si>
+    <t>X1801092202281865</t>
+  </si>
+  <si>
+    <t>X1801092202281860</t>
+  </si>
+  <si>
+    <t>X1801092202271855</t>
+  </si>
+  <si>
+    <t>X1801092202271850</t>
+  </si>
+  <si>
+    <t>X1801092202271845</t>
+  </si>
+  <si>
+    <t>X1801092202271840</t>
+  </si>
+  <si>
+    <t>X1801092202261835</t>
+  </si>
+  <si>
+    <t>X1801092202261830</t>
+  </si>
+  <si>
+    <t>X1801092202261825</t>
+  </si>
+  <si>
+    <t>X1801092202261820</t>
+  </si>
+  <si>
+    <t>X1801092202251815</t>
+  </si>
+  <si>
+    <t>X1801092202251810</t>
+  </si>
+  <si>
+    <t>X1801092202251805</t>
+  </si>
+  <si>
+    <t>X1801092202251800</t>
+  </si>
+  <si>
+    <t>X1801092202251795</t>
+  </si>
+  <si>
+    <t>X1801092202241790</t>
+  </si>
+  <si>
+    <t>X1801092202241785</t>
+  </si>
+  <si>
+    <t>X1801092202241780</t>
+  </si>
+  <si>
+    <t>X1801092202241775</t>
+  </si>
+  <si>
+    <t>X1801092202231770</t>
+  </si>
+  <si>
+    <t>X1801092202231760</t>
+  </si>
+  <si>
+    <t>X1801092202231755</t>
+  </si>
+  <si>
+    <t>X1801092202221750</t>
+  </si>
+  <si>
+    <t>X1801092202221745</t>
+  </si>
+  <si>
+    <t>X1801092202221740</t>
+  </si>
+  <si>
+    <t>X1801092202221735</t>
+  </si>
+  <si>
+    <t>X1801092202211725</t>
+  </si>
+  <si>
+    <t>X1801092202211720</t>
+  </si>
+  <si>
+    <t>X1801092202211715</t>
+  </si>
+  <si>
+    <t>X1801092202211710</t>
+  </si>
+  <si>
+    <t>X1801092202211705</t>
+  </si>
+  <si>
+    <t>X1801092202201700</t>
+  </si>
+  <si>
+    <t>X1801092202201695</t>
+  </si>
+  <si>
+    <t>X1801092202201690</t>
+  </si>
+  <si>
+    <t>X1801092202201685</t>
+  </si>
+  <si>
+    <t>X1801092202191680</t>
+  </si>
+  <si>
+    <t>X1801092202191675</t>
+  </si>
+  <si>
+    <t>X1801092202191670</t>
+  </si>
+  <si>
+    <t>X1801092202191665</t>
+  </si>
+  <si>
+    <t>X1801092202181660</t>
+  </si>
+  <si>
+    <t>X1801092202181655</t>
+  </si>
+  <si>
+    <t>X1801092201260513</t>
+  </si>
+  <si>
+    <t>X1801092201250508</t>
+  </si>
+  <si>
+    <t>X1801092201250503</t>
+  </si>
+  <si>
+    <t>X1801092201250498</t>
+  </si>
+  <si>
+    <t>X1801092201250493</t>
+  </si>
+  <si>
+    <t>X1801092201240488</t>
+  </si>
+  <si>
+    <t>X1801092201240483</t>
+  </si>
+  <si>
+    <t>X1801092201240478</t>
+  </si>
+  <si>
+    <t>X1801092201240473</t>
+  </si>
+  <si>
+    <t>X1801092201230467</t>
+  </si>
+  <si>
+    <t>X1801092201230462</t>
+  </si>
+  <si>
+    <t>X1801092201230457</t>
+  </si>
+  <si>
+    <t>X1801092201230452</t>
+  </si>
+  <si>
+    <t>X1801092201220446</t>
+  </si>
+  <si>
+    <t>X1801092201220441</t>
+  </si>
+  <si>
+    <t>X1801092201220436</t>
+  </si>
+  <si>
+    <t>X1801092201220430</t>
+  </si>
+  <si>
+    <t>X1801092201210425</t>
+  </si>
+  <si>
+    <t>X1801092201210420</t>
+  </si>
+  <si>
+    <t>X1801092201210415</t>
+  </si>
+  <si>
+    <t>X1801092201210410</t>
+  </si>
+  <si>
+    <t>X1801092201200404</t>
+  </si>
+  <si>
+    <t>X1801092201200399</t>
+  </si>
+  <si>
+    <t>X1801092201200394</t>
+  </si>
+  <si>
+    <t>X1801092201200388</t>
+  </si>
+  <si>
+    <t>X1801092201190382</t>
+  </si>
+  <si>
+    <t>X1801092201190377</t>
+  </si>
+  <si>
+    <t>X1801092201190372</t>
+  </si>
+  <si>
+    <t>X1801092201190367</t>
+  </si>
+  <si>
+    <t>X1801092201180361</t>
+  </si>
+  <si>
+    <t>X1801092201180356</t>
+  </si>
+  <si>
+    <t>X1801092201180351</t>
+  </si>
+  <si>
+    <t>X1801092201180346</t>
+  </si>
+  <si>
+    <t>X1801092201170341</t>
+  </si>
+  <si>
+    <t>X1801092201170336</t>
+  </si>
+  <si>
+    <t>X1801092201170331</t>
+  </si>
+  <si>
+    <t>X1801092201170326</t>
+  </si>
+  <si>
+    <t>X1801092201160321</t>
+  </si>
+  <si>
+    <t>X1801092201160316</t>
+  </si>
+  <si>
+    <t>X1801092201160309</t>
+  </si>
+  <si>
+    <t>X1801092201150304</t>
+  </si>
+  <si>
+    <t>X1801092201150299</t>
+  </si>
+  <si>
+    <t>X1801092201150294</t>
+  </si>
+  <si>
+    <t>X1801092201150289</t>
+  </si>
+  <si>
+    <t>X1801092201150284</t>
+  </si>
+  <si>
+    <t>X1801092201110279</t>
+  </si>
+  <si>
+    <t>X1801092201070274</t>
+  </si>
+  <si>
+    <t>X1801092201070269</t>
+  </si>
+  <si>
+    <t>X1801092201060264</t>
+  </si>
+  <si>
+    <t>X1801092201060259</t>
+  </si>
+  <si>
+    <t>X1801092201060254</t>
+  </si>
+  <si>
+    <t>X1801092201060249</t>
+  </si>
+  <si>
+    <t>X1801092201050244</t>
+  </si>
+  <si>
+    <t>X1801092201050239</t>
+  </si>
+  <si>
+    <t>X1801092201050234</t>
+  </si>
+  <si>
+    <t>X1801092201050229</t>
+  </si>
+  <si>
+    <t>X1801092201050224</t>
+  </si>
+  <si>
+    <t>X1801092201040219</t>
+  </si>
+  <si>
+    <t>X1801092201040214</t>
+  </si>
+  <si>
+    <t>X1801092201040209</t>
+  </si>
+  <si>
+    <t>X1801092201040204</t>
+  </si>
+  <si>
+    <t>X1801092201030199</t>
+  </si>
+  <si>
+    <t>X1801092201030194</t>
+  </si>
+  <si>
+    <t>X1801092201030188</t>
+  </si>
+  <si>
+    <t>X1801092201030183</t>
+  </si>
+  <si>
+    <t>X1801092201020178</t>
+  </si>
+  <si>
+    <t>X1801092201020173</t>
+  </si>
+  <si>
+    <t>X1801092201020168</t>
+  </si>
+  <si>
+    <t>X1801092201020163</t>
+  </si>
+  <si>
+    <t>X1801092201020158</t>
+  </si>
+  <si>
+    <t>X1801092201010151</t>
+  </si>
+  <si>
+    <t>X1801092201010145</t>
+  </si>
+  <si>
+    <t>X1801092201000140</t>
+  </si>
+  <si>
+    <t>X1801092201000135</t>
+  </si>
+  <si>
+    <t>X1801092201000130</t>
+  </si>
+  <si>
+    <t>X1801092201000125</t>
+  </si>
+  <si>
+    <t>X1801092200590118</t>
+  </si>
+  <si>
+    <t>X1801092200590113</t>
+  </si>
+  <si>
+    <t>X1801092200590108</t>
+  </si>
+  <si>
+    <t>X1801092200590103</t>
+  </si>
+  <si>
+    <t>X1801092200580098</t>
+  </si>
+  <si>
+    <t>X1801092200580093</t>
+  </si>
+  <si>
+    <t>X1801092200580088</t>
+  </si>
+  <si>
+    <t>X1801092200580083</t>
+  </si>
+  <si>
+    <t>X1801092200580078</t>
+  </si>
+  <si>
+    <t>X1801092200570073</t>
+  </si>
+  <si>
+    <t>X1801092200570068</t>
+  </si>
+  <si>
+    <t>X1801092200570063</t>
+  </si>
+  <si>
+    <t>X1801092200570058</t>
+  </si>
+  <si>
+    <t>X1801092200570053</t>
+  </si>
+  <si>
+    <t>X1801092200560048</t>
+  </si>
+  <si>
+    <t>X1801092200560043</t>
+  </si>
+  <si>
+    <t>X1801092200560038</t>
+  </si>
+  <si>
+    <t>X1801092200560033</t>
+  </si>
+  <si>
+    <t>X1801092200550028</t>
+  </si>
+  <si>
+    <t>X1801092200550023</t>
+  </si>
+  <si>
+    <t>X1801092200550018</t>
+  </si>
+  <si>
+    <t>X1801092200550012</t>
+  </si>
+  <si>
+    <t>X1801092200540007</t>
+  </si>
+  <si>
+    <t>X1801092200540002</t>
+  </si>
+  <si>
+    <t>X1801081735031640</t>
+  </si>
+  <si>
+    <t>X1801081733561635</t>
+  </si>
+  <si>
+    <t>X1801081732451630</t>
+  </si>
+  <si>
+    <t>X1801081731281621</t>
+  </si>
+  <si>
+    <t>X1801081727201611</t>
+  </si>
+  <si>
+    <t>X1801081725281605</t>
+  </si>
+  <si>
+    <t>X1801081547581286</t>
+  </si>
+  <si>
+    <t>X1801081545021281</t>
+  </si>
+  <si>
+    <t>X1801081541181274</t>
+  </si>
+  <si>
+    <t>X1801081457251176</t>
+  </si>
+  <si>
+    <t>X1801081000580251</t>
+  </si>
+  <si>
+    <t>X1801080959170232</t>
+  </si>
+  <si>
+    <t>X1801041109390018</t>
+  </si>
+  <si>
+    <t>X1801041034160479</t>
+  </si>
+  <si>
+    <t>X1801041003090388</t>
+  </si>
+  <si>
+    <t>X1801040955270365</t>
+  </si>
+  <si>
+    <t>X1801040919080218</t>
+  </si>
+  <si>
+    <t>X1712191019370103</t>
+  </si>
+  <si>
+    <t>X1712190959400091</t>
+  </si>
+  <si>
+    <t>X1803090832230446</t>
+  </si>
+  <si>
+    <t>X1803090832230440</t>
+  </si>
+  <si>
+    <t>X1803090832220430</t>
+  </si>
+  <si>
+    <t>X1803090832210420</t>
+  </si>
+  <si>
+    <t>X1803090832200410</t>
+  </si>
+  <si>
+    <t>X1803090832190395</t>
+  </si>
+  <si>
+    <t>X1803090832180385</t>
+  </si>
+  <si>
+    <t>X1803090832160375</t>
+  </si>
+  <si>
+    <t>X1803090832150370</t>
+  </si>
+  <si>
+    <t>X1803090832140355</t>
+  </si>
+  <si>
+    <t>X1803090832130350</t>
+  </si>
+  <si>
+    <t>X1803090832130345</t>
+  </si>
+  <si>
+    <t>X1803090832120335</t>
+  </si>
+  <si>
+    <t>X1803090832110315</t>
+  </si>
+  <si>
+    <t>X1803090832100305</t>
+  </si>
+  <si>
+    <t>X1803090832100300</t>
+  </si>
+  <si>
+    <t>X1803090832080285</t>
+  </si>
+  <si>
+    <t>X1803090832070269</t>
+  </si>
+  <si>
+    <t>X1803090832070259</t>
+  </si>
+  <si>
+    <t>X1803090832060254</t>
+  </si>
+  <si>
+    <t>X1803090832060249</t>
+  </si>
+  <si>
+    <t>X1803090832050239</t>
+  </si>
+  <si>
+    <t>X1801182218566395</t>
+  </si>
+  <si>
+    <t>X1801182218556390</t>
+  </si>
+  <si>
+    <t>X1801182218546385</t>
+  </si>
+  <si>
+    <t>X1801182218546380</t>
+  </si>
+  <si>
+    <t>X1801182218526365</t>
+  </si>
+  <si>
+    <t>X1801182218516360</t>
+  </si>
+  <si>
+    <t>X1801182218306215</t>
+  </si>
+  <si>
+    <t>X1801182218296210</t>
+  </si>
+  <si>
+    <t>X1801182218286205</t>
+  </si>
+  <si>
+    <t>X1801182217285738</t>
+  </si>
+  <si>
+    <t>X1801182217155628</t>
+  </si>
+  <si>
+    <t>X1801182214013995</t>
+  </si>
+  <si>
+    <t>X1801182213233670</t>
+  </si>
+  <si>
+    <t>X1801182213223660</t>
+  </si>
+  <si>
+    <t>X1801182213203645</t>
+  </si>
+  <si>
+    <t>X1801182213193640</t>
+  </si>
+  <si>
+    <t>X1801182213173625</t>
+  </si>
+  <si>
+    <t>X1801182213163620</t>
+  </si>
+  <si>
+    <t>X1801182213153610</t>
+  </si>
+  <si>
+    <t>X1801182213133600</t>
+  </si>
+  <si>
+    <t>X1801182213123590</t>
+  </si>
+  <si>
+    <t>X1801182213123585</t>
+  </si>
+  <si>
+    <t>X1801182213113580</t>
+  </si>
+  <si>
+    <t>X1801182213113575</t>
+  </si>
+  <si>
+    <t>X1801182213103570</t>
+  </si>
+  <si>
+    <t>X1801182213103565</t>
+  </si>
+  <si>
+    <t>X1801182213093560</t>
+  </si>
+  <si>
+    <t>X1801182213093555</t>
+  </si>
+  <si>
+    <t>X1801182213083550</t>
+  </si>
+  <si>
+    <t>X1801182213073540</t>
+  </si>
+  <si>
+    <t>X1801182213063535</t>
+  </si>
+  <si>
+    <t>X1801182213063530</t>
+  </si>
+  <si>
+    <t>X1801182213053525</t>
+  </si>
+  <si>
+    <t>X1801182213053520</t>
+  </si>
+  <si>
+    <t>X1801182213043515</t>
+  </si>
+  <si>
+    <t>X1801182213043510</t>
+  </si>
+  <si>
+    <t>X1801182213033505</t>
+  </si>
+  <si>
+    <t>X1801182213033500</t>
+  </si>
+  <si>
+    <t>X1801182213023495</t>
+  </si>
+  <si>
+    <t>X1801182213013490</t>
+  </si>
+  <si>
+    <t>X1801182213013485</t>
+  </si>
+  <si>
+    <t>X1801182213003480</t>
+  </si>
+  <si>
+    <t>X1801182213003475</t>
+  </si>
+  <si>
+    <t>X1801182212593465</t>
+  </si>
+  <si>
+    <t>X1801182212583460</t>
+  </si>
+  <si>
+    <t>X1801182212583455</t>
+  </si>
+  <si>
+    <t>X1801182212573450</t>
+  </si>
+  <si>
+    <t>X1801182212563445</t>
+  </si>
+  <si>
+    <t>X1801182212563440</t>
+  </si>
+  <si>
+    <t>X1801182212553435</t>
+  </si>
+  <si>
+    <t>X1801182212553430</t>
+  </si>
+  <si>
+    <t>X1801182212543425</t>
+  </si>
+  <si>
+    <t>X1801182212543420</t>
+  </si>
+  <si>
+    <t>X1801182212533415</t>
+  </si>
+  <si>
+    <t>X1801182212533410</t>
+  </si>
+  <si>
+    <t>X1801182212513400</t>
+  </si>
+  <si>
+    <t>X1801182212503390</t>
+  </si>
+  <si>
+    <t>X1801182212503385</t>
+  </si>
+  <si>
+    <t>X1801182212493375</t>
+  </si>
+  <si>
+    <t>X1801182212483370</t>
+  </si>
+  <si>
+    <t>X1801182212483365</t>
+  </si>
+  <si>
+    <t>X1801182212473360</t>
+  </si>
+  <si>
+    <t>X1801182212463355</t>
+  </si>
+  <si>
+    <t>X1801182212453350</t>
+  </si>
+  <si>
+    <t>X1801182212453345</t>
+  </si>
+  <si>
+    <t>X1801182212443340</t>
+  </si>
+  <si>
+    <t>X1801182212443335</t>
+  </si>
+  <si>
+    <t>X1801182212433330</t>
+  </si>
+  <si>
+    <t>X1801182212433325</t>
+  </si>
+  <si>
+    <t>X1801182212423320</t>
+  </si>
+  <si>
+    <t>X1801182212423315</t>
+  </si>
+  <si>
+    <t>X1801182212413310</t>
+  </si>
+  <si>
+    <t>X1801182212403305</t>
+  </si>
+  <si>
+    <t>X1801182212403300</t>
+  </si>
+  <si>
+    <t>X1801182212393295</t>
+  </si>
+  <si>
+    <t>X1801182212393290</t>
+  </si>
+  <si>
+    <t>X1801182212383285</t>
+  </si>
+  <si>
+    <t>X1801182212383280</t>
+  </si>
+  <si>
+    <t>X1801182212373275</t>
+  </si>
+  <si>
+    <t>X1801182212373270</t>
+  </si>
+  <si>
+    <t>X1801182212363265</t>
+  </si>
+  <si>
+    <t>X1801182212363260</t>
+  </si>
+  <si>
+    <t>X1801182212353255</t>
+  </si>
+  <si>
+    <t>X1801182212343250</t>
+  </si>
+  <si>
+    <t>X1801182212343245</t>
+  </si>
+  <si>
+    <t>X1801182212333235</t>
+  </si>
+  <si>
+    <t>X1801182212323230</t>
+  </si>
+  <si>
+    <t>X1801182212323225</t>
+  </si>
+  <si>
+    <t>X1801182212313220</t>
+  </si>
+  <si>
+    <t>X1801182212313215</t>
+  </si>
+  <si>
+    <t>X1801182212303210</t>
+  </si>
+  <si>
+    <t>X1801182212293205</t>
+  </si>
+  <si>
+    <t>X1801182212293200</t>
+  </si>
+  <si>
+    <t>X1801182212283195</t>
+  </si>
+  <si>
+    <t>X1801182212283190</t>
+  </si>
+  <si>
+    <t>X1801182212273185</t>
+  </si>
+  <si>
+    <t>X1801182212273180</t>
+  </si>
+  <si>
+    <t>X1801182212263175</t>
+  </si>
+  <si>
+    <t>X1801182212263170</t>
+  </si>
+  <si>
+    <t>X1801182212253165</t>
+  </si>
+  <si>
+    <t>X1801182212243160</t>
+  </si>
+  <si>
+    <t>X1801182212243155</t>
+  </si>
+  <si>
+    <t>X1801182212233150</t>
+  </si>
+  <si>
+    <t>X1801182212233145</t>
+  </si>
+  <si>
+    <t>X1801182212223135</t>
+  </si>
+  <si>
+    <t>X1801182212213130</t>
+  </si>
+  <si>
+    <t>X1801182212213125</t>
+  </si>
+  <si>
+    <t>X1801182212203120</t>
+  </si>
+  <si>
+    <t>X1801182212203115</t>
+  </si>
+  <si>
+    <t>X1801182212193110</t>
+  </si>
+  <si>
+    <t>X1801182212183105</t>
+  </si>
+  <si>
+    <t>X1801182212183100</t>
+  </si>
+  <si>
+    <t>X1801182212173094</t>
+  </si>
+  <si>
+    <t>X1801182212163088</t>
+  </si>
+  <si>
+    <t>X1801182212153083</t>
+  </si>
+  <si>
+    <t>X1801182212143073</t>
+  </si>
+  <si>
+    <t>X1801182212133063</t>
+  </si>
+  <si>
+    <t>X1801182212133058</t>
+  </si>
+  <si>
+    <t>X1801182212123048</t>
+  </si>
+  <si>
+    <t>X1801182212113038</t>
+  </si>
+  <si>
+    <t>X1801182212103033</t>
+  </si>
+  <si>
+    <t>X1801182209561808</t>
+  </si>
+  <si>
+    <t>X1801182208431170</t>
+  </si>
+  <si>
+    <t>X1801182208371114</t>
+  </si>
+  <si>
+    <t>X1801182208311062</t>
+  </si>
+  <si>
+    <t>X1801182208120886</t>
+  </si>
+  <si>
+    <t>X1801051535570200</t>
+  </si>
+  <si>
+    <t>X1801040910530159</t>
   </si>
 </sst>
 </file>
@@ -3814,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1149"/>
+  <dimension ref="A1:A987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1141" workbookViewId="0">
-      <selection activeCell="A985" sqref="A985"/>
+    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="C840" sqref="C840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8760,816 +8274,6 @@
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1148" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" t="s">
-        <v>1148</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
